--- a/Обзор существующих приложений, план на семестр.xlsx
+++ b/Обзор существующих приложений, план на семестр.xlsx
@@ -7,25 +7,34 @@
     <sheet state="visible" name="План" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_269770A5_9AA1_47FE_8112_84232B607CC1_.wvu.FilterData">'Обзор существующих приложений'!$A$1:$I$35</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_025F4379_86B0_4E05_87B7_8BDA575114C3_.wvu.FilterData">'Обзор существующих приложений'!$A$1:$L$35</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{269770A5-9AA1-47FE-8112-84232B607CC1}" name="Фильтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{025F4379-86B0-4E05-87B7-8BDA575114C3}" name="Фильтр 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="69">
-  <si>
-    <t>Начальное окно с описанием основных функций</t>
-  </si>
-  <si>
-    <t>Добавление рецептов из базы и своих рецептов в личный список</t>
-  </si>
-  <si>
-    <t>Разделение на категории при поиске/подборки рецептов(низкокалорийные, кето и т.д.)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="60">
+  <si>
+    <t>Начальное окно с описанием основных функций, введение в основные возможности приложения</t>
+  </si>
+  <si>
+    <t>Добавление рецептов из базы в избранное</t>
+  </si>
+  <si>
+    <t>Добавление  своих рецептов в избранное</t>
+  </si>
+  <si>
+    <t>Разделение на категории при поиске (мясные, вегетарианские и т.д.)</t>
+  </si>
+  <si>
+    <t>Подборки рецептов на главной странице (низкокалорийные, кетодиеты, высокобелоквые и т.д.)</t>
+  </si>
+  <si>
+    <t>Поиск рецептов по названию</t>
   </si>
   <si>
     <t>Поиск рецептов по заданным параметрам (ингридиенты, сложность, время готовки и т.д.)</t>
@@ -49,72 +58,33 @@
     <t>+</t>
   </si>
   <si>
-    <t>- (Только по названию)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Приложения в Google Play – Рецепты с фото. Кулинария</t>
   </si>
   <si>
-    <t>+ (Есть добавление в избранное из базы, нет добавления собственных)</t>
-  </si>
-  <si>
-    <t>- (Разделение только по виду - второе, первое, мясное)</t>
-  </si>
-  <si>
-    <t>- (Поиск только по названию блюда)</t>
-  </si>
-  <si>
     <t>Простые рецепты - Приложения в Google Play</t>
   </si>
   <si>
-    <t>+ (Рецепты разбиты по категориям)</t>
-  </si>
-  <si>
-    <t>- (Поиск по названию блюда и по ингридиенту)</t>
-  </si>
-  <si>
-    <t>+ (Можно добавить рецепт из базы, но нельзя добавить свой)</t>
-  </si>
-  <si>
-    <t>- (Поиск только по названию блюда и ингридиенту)</t>
-  </si>
-  <si>
-    <t>- (Меняется только тема)</t>
-  </si>
-  <si>
     <t>Food.ru: пошаговые рецепты - Apps on Google Play</t>
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=fr.cookbook&amp;hl=ru&amp;gl=US</t>
   </si>
   <si>
-    <t>- (Поиск только по названию)</t>
-  </si>
-  <si>
     <t>Книга рецептов. Простые рецепт - Apps on Google Play</t>
   </si>
   <si>
     <t>Recipe Calendar - Meal Planner - Apps on Google Play</t>
   </si>
   <si>
-    <t>+ (Рецепты разбиты на меню)</t>
-  </si>
-  <si>
     <t>https://play.google.com/store/apps/details?id=com.riatech.cookbook</t>
   </si>
   <si>
     <t>Приложения в Google Play – Кухня Книга: Все рецепты</t>
   </si>
   <si>
-    <t>+ (Рецепты разбиты на категории)</t>
-  </si>
-  <si>
-    <t>- (Поиск только по ингридиентам и названию)</t>
-  </si>
-  <si>
     <t>Healthy Smoothie: 500+ Recipes - Apps on Google Play</t>
   </si>
   <si>
@@ -203,6 +173,9 @@
   </si>
   <si>
     <t>Дизайн приложения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дополнение введения, </t>
   </si>
   <si>
     <t>Тестовый билд</t>
@@ -233,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd.mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -250,6 +223,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -304,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -312,10 +290,13 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -324,19 +305,22 @@
     <xf quotePrefix="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf quotePrefix="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -359,7 +343,28 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -577,11 +582,11 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="53.75"/>
     <col customWidth="1" min="2" max="2" width="38.13"/>
-    <col customWidth="1" min="3" max="3" width="36.38"/>
-    <col customWidth="1" min="4" max="4" width="32.75"/>
-    <col customWidth="1" min="5" max="5" width="37.75"/>
-    <col customWidth="1" min="6" max="6" width="26.5"/>
-    <col customWidth="1" min="7" max="7" width="14.0"/>
+    <col customWidth="1" min="3" max="4" width="36.38"/>
+    <col customWidth="1" min="5" max="5" width="32.75"/>
+    <col customWidth="1" min="6" max="8" width="37.75"/>
+    <col customWidth="1" min="9" max="9" width="26.5"/>
+    <col customWidth="1" min="10" max="10" width="14.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.0" customHeight="1">
@@ -592,7 +597,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -607,3896 +612,4223 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" ht="37.5" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="40.5" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="37.5" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="47.25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="39.0" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="42.75" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="47.25" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="42.0" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="37.5" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="42.75" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="39.0" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="42.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="42.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="42.75" customHeight="1">
+      <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="42.0" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="42.75" customHeight="1">
+      <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="42.75" customHeight="1">
+      <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="42.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="42.75" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="42.75" customHeight="1">
+      <c r="A20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="B20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="42.75" customHeight="1">
+      <c r="A21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="42.75" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" ht="42.75" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="42.75" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="B22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="42.75" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" ht="42.75" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="42.75" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="42.75" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="B24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="42.75" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="42.75" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="B25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="42.75" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" ht="42.75" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" ht="42.75" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="42.75" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="B27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="42.75" customHeight="1">
+      <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="42.75" customHeight="1">
-      <c r="A19" s="8" t="s">
+      <c r="B28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="42.75" customHeight="1">
+      <c r="A29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" ht="42.75" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="B29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" ht="42.75" customHeight="1">
+      <c r="A30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="42.75" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="B30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="42.75" customHeight="1">
+      <c r="A31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" ht="42.75" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="B31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="42.75" customHeight="1">
+      <c r="A32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="42.75" customHeight="1">
-      <c r="A23" s="8" t="s">
+      <c r="B32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="42.75" customHeight="1">
+      <c r="A33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" ht="42.75" customHeight="1">
-      <c r="A24" s="8" t="s">
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" ht="42.75" customHeight="1">
+      <c r="A34" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="42.75" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="B34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" ht="42.75" customHeight="1">
+      <c r="A35" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="42.75" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" ht="42.75" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" ht="42.75" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" ht="42.75" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" ht="42.75" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" ht="42.75" customHeight="1">
-      <c r="A31" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" ht="42.75" customHeight="1">
-      <c r="A32" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" ht="42.75" customHeight="1">
-      <c r="A33" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" ht="42.75" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" ht="42.75" customHeight="1">
-      <c r="A35" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>11</v>
+      <c r="B35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36">
-      <c r="F36" s="12"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37">
-      <c r="F37" s="12"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38">
-      <c r="F38" s="12"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39">
-      <c r="F39" s="12"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40">
-      <c r="F40" s="12"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41">
-      <c r="F41" s="12"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42">
-      <c r="F42" s="12"/>
+      <c r="I42" s="14"/>
     </row>
     <row r="43">
-      <c r="F43" s="12"/>
+      <c r="I43" s="14"/>
     </row>
     <row r="44">
-      <c r="F44" s="12"/>
+      <c r="I44" s="14"/>
     </row>
     <row r="45">
-      <c r="F45" s="12"/>
+      <c r="I45" s="14"/>
     </row>
     <row r="46">
-      <c r="F46" s="12"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47">
-      <c r="F47" s="12"/>
+      <c r="I47" s="14"/>
     </row>
     <row r="48">
-      <c r="F48" s="12"/>
+      <c r="I48" s="14"/>
     </row>
     <row r="49">
-      <c r="F49" s="12"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50">
-      <c r="F50" s="12"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51">
-      <c r="F51" s="12"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52">
-      <c r="F52" s="12"/>
+      <c r="I52" s="14"/>
     </row>
     <row r="53">
-      <c r="F53" s="12"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54">
-      <c r="F54" s="12"/>
+      <c r="I54" s="14"/>
     </row>
     <row r="55">
-      <c r="F55" s="12"/>
+      <c r="I55" s="14"/>
     </row>
     <row r="56">
-      <c r="F56" s="12"/>
+      <c r="I56" s="14"/>
     </row>
     <row r="57">
-      <c r="F57" s="12"/>
+      <c r="I57" s="14"/>
     </row>
     <row r="58">
-      <c r="F58" s="12"/>
+      <c r="I58" s="14"/>
     </row>
     <row r="59">
-      <c r="F59" s="12"/>
+      <c r="I59" s="14"/>
     </row>
     <row r="60">
-      <c r="F60" s="12"/>
+      <c r="I60" s="14"/>
     </row>
     <row r="61">
-      <c r="F61" s="12"/>
+      <c r="I61" s="14"/>
     </row>
     <row r="62">
-      <c r="F62" s="12"/>
+      <c r="I62" s="14"/>
     </row>
     <row r="63">
-      <c r="F63" s="12"/>
+      <c r="I63" s="14"/>
     </row>
     <row r="64">
-      <c r="F64" s="12"/>
+      <c r="I64" s="14"/>
     </row>
     <row r="65">
-      <c r="F65" s="12"/>
+      <c r="I65" s="14"/>
     </row>
     <row r="66">
-      <c r="F66" s="12"/>
+      <c r="I66" s="14"/>
     </row>
     <row r="67">
-      <c r="F67" s="12"/>
+      <c r="I67" s="14"/>
     </row>
     <row r="68">
-      <c r="F68" s="12"/>
+      <c r="I68" s="14"/>
     </row>
     <row r="69">
-      <c r="F69" s="12"/>
+      <c r="I69" s="14"/>
     </row>
     <row r="70">
-      <c r="F70" s="12"/>
+      <c r="I70" s="14"/>
     </row>
     <row r="71">
-      <c r="F71" s="12"/>
+      <c r="I71" s="14"/>
     </row>
     <row r="72">
-      <c r="F72" s="12"/>
+      <c r="I72" s="14"/>
     </row>
     <row r="73">
-      <c r="F73" s="12"/>
+      <c r="I73" s="14"/>
     </row>
     <row r="74">
-      <c r="F74" s="12"/>
+      <c r="I74" s="14"/>
     </row>
     <row r="75">
-      <c r="F75" s="12"/>
+      <c r="I75" s="14"/>
     </row>
     <row r="76">
-      <c r="F76" s="12"/>
+      <c r="I76" s="14"/>
     </row>
     <row r="77">
-      <c r="F77" s="12"/>
+      <c r="I77" s="14"/>
     </row>
     <row r="78">
-      <c r="F78" s="12"/>
+      <c r="I78" s="14"/>
     </row>
     <row r="79">
-      <c r="F79" s="12"/>
+      <c r="I79" s="14"/>
     </row>
     <row r="80">
-      <c r="F80" s="12"/>
+      <c r="I80" s="14"/>
     </row>
     <row r="81">
-      <c r="F81" s="12"/>
+      <c r="I81" s="14"/>
     </row>
     <row r="82">
-      <c r="F82" s="12"/>
+      <c r="I82" s="14"/>
     </row>
     <row r="83">
-      <c r="F83" s="12"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84">
-      <c r="F84" s="12"/>
+      <c r="I84" s="14"/>
     </row>
     <row r="85">
-      <c r="F85" s="12"/>
+      <c r="I85" s="14"/>
     </row>
     <row r="86">
-      <c r="F86" s="12"/>
+      <c r="I86" s="14"/>
     </row>
     <row r="87">
-      <c r="F87" s="12"/>
+      <c r="I87" s="14"/>
     </row>
     <row r="88">
-      <c r="F88" s="12"/>
+      <c r="I88" s="14"/>
     </row>
     <row r="89">
-      <c r="F89" s="12"/>
+      <c r="I89" s="14"/>
     </row>
     <row r="90">
-      <c r="F90" s="12"/>
+      <c r="I90" s="14"/>
     </row>
     <row r="91">
-      <c r="F91" s="12"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92">
-      <c r="F92" s="12"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93">
-      <c r="F93" s="12"/>
+      <c r="I93" s="14"/>
     </row>
     <row r="94">
-      <c r="F94" s="12"/>
+      <c r="I94" s="14"/>
     </row>
     <row r="95">
-      <c r="F95" s="12"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96">
-      <c r="F96" s="12"/>
+      <c r="I96" s="14"/>
     </row>
     <row r="97">
-      <c r="F97" s="12"/>
+      <c r="I97" s="14"/>
     </row>
     <row r="98">
-      <c r="F98" s="12"/>
+      <c r="I98" s="14"/>
     </row>
     <row r="99">
-      <c r="F99" s="12"/>
+      <c r="I99" s="14"/>
     </row>
     <row r="100">
-      <c r="F100" s="12"/>
+      <c r="I100" s="14"/>
     </row>
     <row r="101">
-      <c r="F101" s="12"/>
+      <c r="I101" s="14"/>
     </row>
     <row r="102">
-      <c r="F102" s="12"/>
+      <c r="I102" s="14"/>
     </row>
     <row r="103">
-      <c r="F103" s="12"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104">
-      <c r="F104" s="12"/>
+      <c r="I104" s="14"/>
     </row>
     <row r="105">
-      <c r="F105" s="12"/>
+      <c r="I105" s="14"/>
     </row>
     <row r="106">
-      <c r="F106" s="12"/>
+      <c r="I106" s="14"/>
     </row>
     <row r="107">
-      <c r="F107" s="12"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108">
-      <c r="F108" s="12"/>
+      <c r="I108" s="14"/>
     </row>
     <row r="109">
-      <c r="F109" s="12"/>
+      <c r="I109" s="14"/>
     </row>
     <row r="110">
-      <c r="F110" s="12"/>
+      <c r="I110" s="14"/>
     </row>
     <row r="111">
-      <c r="F111" s="12"/>
+      <c r="I111" s="14"/>
     </row>
     <row r="112">
-      <c r="F112" s="12"/>
+      <c r="I112" s="14"/>
     </row>
     <row r="113">
-      <c r="F113" s="12"/>
+      <c r="I113" s="14"/>
     </row>
     <row r="114">
-      <c r="F114" s="12"/>
+      <c r="I114" s="14"/>
     </row>
     <row r="115">
-      <c r="F115" s="12"/>
+      <c r="I115" s="14"/>
     </row>
     <row r="116">
-      <c r="F116" s="12"/>
+      <c r="I116" s="14"/>
     </row>
     <row r="117">
-      <c r="F117" s="12"/>
+      <c r="I117" s="14"/>
     </row>
     <row r="118">
-      <c r="F118" s="12"/>
+      <c r="I118" s="14"/>
     </row>
     <row r="119">
-      <c r="F119" s="12"/>
+      <c r="I119" s="14"/>
     </row>
     <row r="120">
-      <c r="F120" s="12"/>
+      <c r="I120" s="14"/>
     </row>
     <row r="121">
-      <c r="F121" s="12"/>
+      <c r="I121" s="14"/>
     </row>
     <row r="122">
-      <c r="F122" s="12"/>
+      <c r="I122" s="14"/>
     </row>
     <row r="123">
-      <c r="F123" s="12"/>
+      <c r="I123" s="14"/>
     </row>
     <row r="124">
-      <c r="F124" s="12"/>
+      <c r="I124" s="14"/>
     </row>
     <row r="125">
-      <c r="F125" s="12"/>
+      <c r="I125" s="14"/>
     </row>
     <row r="126">
-      <c r="F126" s="12"/>
+      <c r="I126" s="14"/>
     </row>
     <row r="127">
-      <c r="F127" s="12"/>
+      <c r="I127" s="14"/>
     </row>
     <row r="128">
-      <c r="F128" s="12"/>
+      <c r="I128" s="14"/>
     </row>
     <row r="129">
-      <c r="F129" s="12"/>
+      <c r="I129" s="14"/>
     </row>
     <row r="130">
-      <c r="F130" s="12"/>
+      <c r="I130" s="14"/>
     </row>
     <row r="131">
-      <c r="F131" s="12"/>
+      <c r="I131" s="14"/>
     </row>
     <row r="132">
-      <c r="F132" s="12"/>
+      <c r="I132" s="14"/>
     </row>
     <row r="133">
-      <c r="F133" s="12"/>
+      <c r="I133" s="14"/>
     </row>
     <row r="134">
-      <c r="F134" s="12"/>
+      <c r="I134" s="14"/>
     </row>
     <row r="135">
-      <c r="F135" s="12"/>
+      <c r="I135" s="14"/>
     </row>
     <row r="136">
-      <c r="F136" s="12"/>
+      <c r="I136" s="14"/>
     </row>
     <row r="137">
-      <c r="F137" s="12"/>
+      <c r="I137" s="14"/>
     </row>
     <row r="138">
-      <c r="F138" s="12"/>
+      <c r="I138" s="14"/>
     </row>
     <row r="139">
-      <c r="F139" s="12"/>
+      <c r="I139" s="14"/>
     </row>
     <row r="140">
-      <c r="F140" s="12"/>
+      <c r="I140" s="14"/>
     </row>
     <row r="141">
-      <c r="F141" s="12"/>
+      <c r="I141" s="14"/>
     </row>
     <row r="142">
-      <c r="F142" s="12"/>
+      <c r="I142" s="14"/>
     </row>
     <row r="143">
-      <c r="F143" s="12"/>
+      <c r="I143" s="14"/>
     </row>
     <row r="144">
-      <c r="F144" s="12"/>
+      <c r="I144" s="14"/>
     </row>
     <row r="145">
-      <c r="F145" s="12"/>
+      <c r="I145" s="14"/>
     </row>
     <row r="146">
-      <c r="F146" s="12"/>
+      <c r="I146" s="14"/>
     </row>
     <row r="147">
-      <c r="F147" s="12"/>
+      <c r="I147" s="14"/>
     </row>
     <row r="148">
-      <c r="F148" s="12"/>
+      <c r="I148" s="14"/>
     </row>
     <row r="149">
-      <c r="F149" s="12"/>
+      <c r="I149" s="14"/>
     </row>
     <row r="150">
-      <c r="F150" s="12"/>
+      <c r="I150" s="14"/>
     </row>
     <row r="151">
-      <c r="F151" s="12"/>
+      <c r="I151" s="14"/>
     </row>
     <row r="152">
-      <c r="F152" s="12"/>
+      <c r="I152" s="14"/>
     </row>
     <row r="153">
-      <c r="F153" s="12"/>
+      <c r="I153" s="14"/>
     </row>
     <row r="154">
-      <c r="F154" s="12"/>
+      <c r="I154" s="14"/>
     </row>
     <row r="155">
-      <c r="F155" s="12"/>
+      <c r="I155" s="14"/>
     </row>
     <row r="156">
-      <c r="F156" s="12"/>
+      <c r="I156" s="14"/>
     </row>
     <row r="157">
-      <c r="F157" s="12"/>
+      <c r="I157" s="14"/>
     </row>
     <row r="158">
-      <c r="F158" s="12"/>
+      <c r="I158" s="14"/>
     </row>
     <row r="159">
-      <c r="F159" s="12"/>
+      <c r="I159" s="14"/>
     </row>
     <row r="160">
-      <c r="F160" s="12"/>
+      <c r="I160" s="14"/>
     </row>
     <row r="161">
-      <c r="F161" s="12"/>
+      <c r="I161" s="14"/>
     </row>
     <row r="162">
-      <c r="F162" s="12"/>
+      <c r="I162" s="14"/>
     </row>
     <row r="163">
-      <c r="F163" s="12"/>
+      <c r="I163" s="14"/>
     </row>
     <row r="164">
-      <c r="F164" s="12"/>
+      <c r="I164" s="14"/>
     </row>
     <row r="165">
-      <c r="F165" s="12"/>
+      <c r="I165" s="14"/>
     </row>
     <row r="166">
-      <c r="F166" s="12"/>
+      <c r="I166" s="14"/>
     </row>
     <row r="167">
-      <c r="F167" s="12"/>
+      <c r="I167" s="14"/>
     </row>
     <row r="168">
-      <c r="F168" s="12"/>
+      <c r="I168" s="14"/>
     </row>
     <row r="169">
-      <c r="F169" s="12"/>
+      <c r="I169" s="14"/>
     </row>
     <row r="170">
-      <c r="F170" s="12"/>
+      <c r="I170" s="14"/>
     </row>
     <row r="171">
-      <c r="F171" s="12"/>
+      <c r="I171" s="14"/>
     </row>
     <row r="172">
-      <c r="F172" s="12"/>
+      <c r="I172" s="14"/>
     </row>
     <row r="173">
-      <c r="F173" s="12"/>
+      <c r="I173" s="14"/>
     </row>
     <row r="174">
-      <c r="F174" s="12"/>
+      <c r="I174" s="14"/>
     </row>
     <row r="175">
-      <c r="F175" s="12"/>
+      <c r="I175" s="14"/>
     </row>
     <row r="176">
-      <c r="F176" s="12"/>
+      <c r="I176" s="14"/>
     </row>
     <row r="177">
-      <c r="F177" s="12"/>
+      <c r="I177" s="14"/>
     </row>
     <row r="178">
-      <c r="F178" s="12"/>
+      <c r="I178" s="14"/>
     </row>
     <row r="179">
-      <c r="F179" s="12"/>
+      <c r="I179" s="14"/>
     </row>
     <row r="180">
-      <c r="F180" s="12"/>
+      <c r="I180" s="14"/>
     </row>
     <row r="181">
-      <c r="F181" s="12"/>
+      <c r="I181" s="14"/>
     </row>
     <row r="182">
-      <c r="F182" s="12"/>
+      <c r="I182" s="14"/>
     </row>
     <row r="183">
-      <c r="F183" s="12"/>
+      <c r="I183" s="14"/>
     </row>
     <row r="184">
-      <c r="F184" s="12"/>
+      <c r="I184" s="14"/>
     </row>
     <row r="185">
-      <c r="F185" s="12"/>
+      <c r="I185" s="14"/>
     </row>
     <row r="186">
-      <c r="F186" s="12"/>
+      <c r="I186" s="14"/>
     </row>
     <row r="187">
-      <c r="F187" s="12"/>
+      <c r="I187" s="14"/>
     </row>
     <row r="188">
-      <c r="F188" s="12"/>
+      <c r="I188" s="14"/>
     </row>
     <row r="189">
-      <c r="F189" s="12"/>
+      <c r="I189" s="14"/>
     </row>
     <row r="190">
-      <c r="F190" s="12"/>
+      <c r="I190" s="14"/>
     </row>
     <row r="191">
-      <c r="F191" s="12"/>
+      <c r="I191" s="14"/>
     </row>
     <row r="192">
-      <c r="F192" s="12"/>
+      <c r="I192" s="14"/>
     </row>
     <row r="193">
-      <c r="F193" s="12"/>
+      <c r="I193" s="14"/>
     </row>
     <row r="194">
-      <c r="F194" s="12"/>
+      <c r="I194" s="14"/>
     </row>
     <row r="195">
-      <c r="F195" s="12"/>
+      <c r="I195" s="14"/>
     </row>
     <row r="196">
-      <c r="F196" s="12"/>
+      <c r="I196" s="14"/>
     </row>
     <row r="197">
-      <c r="F197" s="12"/>
+      <c r="I197" s="14"/>
     </row>
     <row r="198">
-      <c r="F198" s="12"/>
+      <c r="I198" s="14"/>
     </row>
     <row r="199">
-      <c r="F199" s="12"/>
+      <c r="I199" s="14"/>
     </row>
     <row r="200">
-      <c r="F200" s="12"/>
+      <c r="I200" s="14"/>
     </row>
     <row r="201">
-      <c r="F201" s="12"/>
+      <c r="I201" s="14"/>
     </row>
     <row r="202">
-      <c r="F202" s="12"/>
+      <c r="I202" s="14"/>
     </row>
     <row r="203">
-      <c r="F203" s="12"/>
+      <c r="I203" s="14"/>
     </row>
     <row r="204">
-      <c r="F204" s="12"/>
+      <c r="I204" s="14"/>
     </row>
     <row r="205">
-      <c r="F205" s="12"/>
+      <c r="I205" s="14"/>
     </row>
     <row r="206">
-      <c r="F206" s="12"/>
+      <c r="I206" s="14"/>
     </row>
     <row r="207">
-      <c r="F207" s="12"/>
+      <c r="I207" s="14"/>
     </row>
     <row r="208">
-      <c r="F208" s="12"/>
+      <c r="I208" s="14"/>
     </row>
     <row r="209">
-      <c r="F209" s="12"/>
+      <c r="I209" s="14"/>
     </row>
     <row r="210">
-      <c r="F210" s="12"/>
+      <c r="I210" s="14"/>
     </row>
     <row r="211">
-      <c r="F211" s="12"/>
+      <c r="I211" s="14"/>
     </row>
     <row r="212">
-      <c r="F212" s="12"/>
+      <c r="I212" s="14"/>
     </row>
     <row r="213">
-      <c r="F213" s="12"/>
+      <c r="I213" s="14"/>
     </row>
     <row r="214">
-      <c r="F214" s="12"/>
+      <c r="I214" s="14"/>
     </row>
     <row r="215">
-      <c r="F215" s="12"/>
+      <c r="I215" s="14"/>
     </row>
     <row r="216">
-      <c r="F216" s="12"/>
+      <c r="I216" s="14"/>
     </row>
     <row r="217">
-      <c r="F217" s="12"/>
+      <c r="I217" s="14"/>
     </row>
     <row r="218">
-      <c r="F218" s="12"/>
+      <c r="I218" s="14"/>
     </row>
     <row r="219">
-      <c r="F219" s="12"/>
+      <c r="I219" s="14"/>
     </row>
     <row r="220">
-      <c r="F220" s="12"/>
+      <c r="I220" s="14"/>
     </row>
     <row r="221">
-      <c r="F221" s="12"/>
+      <c r="I221" s="14"/>
     </row>
     <row r="222">
-      <c r="F222" s="12"/>
+      <c r="I222" s="14"/>
     </row>
     <row r="223">
-      <c r="F223" s="12"/>
+      <c r="I223" s="14"/>
     </row>
     <row r="224">
-      <c r="F224" s="12"/>
+      <c r="I224" s="14"/>
     </row>
     <row r="225">
-      <c r="F225" s="12"/>
+      <c r="I225" s="14"/>
     </row>
     <row r="226">
-      <c r="F226" s="12"/>
+      <c r="I226" s="14"/>
     </row>
     <row r="227">
-      <c r="F227" s="12"/>
+      <c r="I227" s="14"/>
     </row>
     <row r="228">
-      <c r="F228" s="12"/>
+      <c r="I228" s="14"/>
     </row>
     <row r="229">
-      <c r="F229" s="12"/>
+      <c r="I229" s="14"/>
     </row>
     <row r="230">
-      <c r="F230" s="12"/>
+      <c r="I230" s="14"/>
     </row>
     <row r="231">
-      <c r="F231" s="12"/>
+      <c r="I231" s="14"/>
     </row>
     <row r="232">
-      <c r="F232" s="12"/>
+      <c r="I232" s="14"/>
     </row>
     <row r="233">
-      <c r="F233" s="12"/>
+      <c r="I233" s="14"/>
     </row>
     <row r="234">
-      <c r="F234" s="12"/>
+      <c r="I234" s="14"/>
     </row>
     <row r="235">
-      <c r="F235" s="12"/>
+      <c r="I235" s="14"/>
     </row>
     <row r="236">
-      <c r="F236" s="12"/>
+      <c r="I236" s="14"/>
     </row>
     <row r="237">
-      <c r="F237" s="12"/>
+      <c r="I237" s="14"/>
     </row>
     <row r="238">
-      <c r="F238" s="12"/>
+      <c r="I238" s="14"/>
     </row>
     <row r="239">
-      <c r="F239" s="12"/>
+      <c r="I239" s="14"/>
     </row>
     <row r="240">
-      <c r="F240" s="12"/>
+      <c r="I240" s="14"/>
     </row>
     <row r="241">
-      <c r="F241" s="12"/>
+      <c r="I241" s="14"/>
     </row>
     <row r="242">
-      <c r="F242" s="12"/>
+      <c r="I242" s="14"/>
     </row>
     <row r="243">
-      <c r="F243" s="12"/>
+      <c r="I243" s="14"/>
     </row>
     <row r="244">
-      <c r="F244" s="12"/>
+      <c r="I244" s="14"/>
     </row>
     <row r="245">
-      <c r="F245" s="12"/>
+      <c r="I245" s="14"/>
     </row>
     <row r="246">
-      <c r="F246" s="12"/>
+      <c r="I246" s="14"/>
     </row>
     <row r="247">
-      <c r="F247" s="12"/>
+      <c r="I247" s="14"/>
     </row>
     <row r="248">
-      <c r="F248" s="12"/>
+      <c r="I248" s="14"/>
     </row>
     <row r="249">
-      <c r="F249" s="12"/>
+      <c r="I249" s="14"/>
     </row>
     <row r="250">
-      <c r="F250" s="12"/>
+      <c r="I250" s="14"/>
     </row>
     <row r="251">
-      <c r="F251" s="12"/>
+      <c r="I251" s="14"/>
     </row>
     <row r="252">
-      <c r="F252" s="12"/>
+      <c r="I252" s="14"/>
     </row>
     <row r="253">
-      <c r="F253" s="12"/>
+      <c r="I253" s="14"/>
     </row>
     <row r="254">
-      <c r="F254" s="12"/>
+      <c r="I254" s="14"/>
     </row>
     <row r="255">
-      <c r="F255" s="12"/>
+      <c r="I255" s="14"/>
     </row>
     <row r="256">
-      <c r="F256" s="12"/>
+      <c r="I256" s="14"/>
     </row>
     <row r="257">
-      <c r="F257" s="12"/>
+      <c r="I257" s="14"/>
     </row>
     <row r="258">
-      <c r="F258" s="12"/>
+      <c r="I258" s="14"/>
     </row>
     <row r="259">
-      <c r="F259" s="12"/>
+      <c r="I259" s="14"/>
     </row>
     <row r="260">
-      <c r="F260" s="12"/>
+      <c r="I260" s="14"/>
     </row>
     <row r="261">
-      <c r="F261" s="12"/>
+      <c r="I261" s="14"/>
     </row>
     <row r="262">
-      <c r="F262" s="12"/>
+      <c r="I262" s="14"/>
     </row>
     <row r="263">
-      <c r="F263" s="12"/>
+      <c r="I263" s="14"/>
     </row>
     <row r="264">
-      <c r="F264" s="12"/>
+      <c r="I264" s="14"/>
     </row>
     <row r="265">
-      <c r="F265" s="12"/>
+      <c r="I265" s="14"/>
     </row>
     <row r="266">
-      <c r="F266" s="12"/>
+      <c r="I266" s="14"/>
     </row>
     <row r="267">
-      <c r="F267" s="12"/>
+      <c r="I267" s="14"/>
     </row>
     <row r="268">
-      <c r="F268" s="12"/>
+      <c r="I268" s="14"/>
     </row>
     <row r="269">
-      <c r="F269" s="12"/>
+      <c r="I269" s="14"/>
     </row>
     <row r="270">
-      <c r="F270" s="12"/>
+      <c r="I270" s="14"/>
     </row>
     <row r="271">
-      <c r="F271" s="12"/>
+      <c r="I271" s="14"/>
     </row>
     <row r="272">
-      <c r="F272" s="12"/>
+      <c r="I272" s="14"/>
     </row>
     <row r="273">
-      <c r="F273" s="12"/>
+      <c r="I273" s="14"/>
     </row>
     <row r="274">
-      <c r="F274" s="12"/>
+      <c r="I274" s="14"/>
     </row>
     <row r="275">
-      <c r="F275" s="12"/>
+      <c r="I275" s="14"/>
     </row>
     <row r="276">
-      <c r="F276" s="12"/>
+      <c r="I276" s="14"/>
     </row>
     <row r="277">
-      <c r="F277" s="12"/>
+      <c r="I277" s="14"/>
     </row>
     <row r="278">
-      <c r="F278" s="12"/>
+      <c r="I278" s="14"/>
     </row>
     <row r="279">
-      <c r="F279" s="12"/>
+      <c r="I279" s="14"/>
     </row>
     <row r="280">
-      <c r="F280" s="12"/>
+      <c r="I280" s="14"/>
     </row>
     <row r="281">
-      <c r="F281" s="12"/>
+      <c r="I281" s="14"/>
     </row>
     <row r="282">
-      <c r="F282" s="12"/>
+      <c r="I282" s="14"/>
     </row>
     <row r="283">
-      <c r="F283" s="12"/>
+      <c r="I283" s="14"/>
     </row>
     <row r="284">
-      <c r="F284" s="12"/>
+      <c r="I284" s="14"/>
     </row>
     <row r="285">
-      <c r="F285" s="12"/>
+      <c r="I285" s="14"/>
     </row>
     <row r="286">
-      <c r="F286" s="12"/>
+      <c r="I286" s="14"/>
     </row>
     <row r="287">
-      <c r="F287" s="12"/>
+      <c r="I287" s="14"/>
     </row>
     <row r="288">
-      <c r="F288" s="12"/>
+      <c r="I288" s="14"/>
     </row>
     <row r="289">
-      <c r="F289" s="12"/>
+      <c r="I289" s="14"/>
     </row>
     <row r="290">
-      <c r="F290" s="12"/>
+      <c r="I290" s="14"/>
     </row>
     <row r="291">
-      <c r="F291" s="12"/>
+      <c r="I291" s="14"/>
     </row>
     <row r="292">
-      <c r="F292" s="12"/>
+      <c r="I292" s="14"/>
     </row>
     <row r="293">
-      <c r="F293" s="12"/>
+      <c r="I293" s="14"/>
     </row>
     <row r="294">
-      <c r="F294" s="12"/>
+      <c r="I294" s="14"/>
     </row>
     <row r="295">
-      <c r="F295" s="12"/>
+      <c r="I295" s="14"/>
     </row>
     <row r="296">
-      <c r="F296" s="12"/>
+      <c r="I296" s="14"/>
     </row>
     <row r="297">
-      <c r="F297" s="12"/>
+      <c r="I297" s="14"/>
     </row>
     <row r="298">
-      <c r="F298" s="12"/>
+      <c r="I298" s="14"/>
     </row>
     <row r="299">
-      <c r="F299" s="12"/>
+      <c r="I299" s="14"/>
     </row>
     <row r="300">
-      <c r="F300" s="12"/>
+      <c r="I300" s="14"/>
     </row>
     <row r="301">
-      <c r="F301" s="12"/>
+      <c r="I301" s="14"/>
     </row>
     <row r="302">
-      <c r="F302" s="12"/>
+      <c r="I302" s="14"/>
     </row>
     <row r="303">
-      <c r="F303" s="12"/>
+      <c r="I303" s="14"/>
     </row>
     <row r="304">
-      <c r="F304" s="12"/>
+      <c r="I304" s="14"/>
     </row>
     <row r="305">
-      <c r="F305" s="12"/>
+      <c r="I305" s="14"/>
     </row>
     <row r="306">
-      <c r="F306" s="12"/>
+      <c r="I306" s="14"/>
     </row>
     <row r="307">
-      <c r="F307" s="12"/>
+      <c r="I307" s="14"/>
     </row>
     <row r="308">
-      <c r="F308" s="12"/>
+      <c r="I308" s="14"/>
     </row>
     <row r="309">
-      <c r="F309" s="12"/>
+      <c r="I309" s="14"/>
     </row>
     <row r="310">
-      <c r="F310" s="12"/>
+      <c r="I310" s="14"/>
     </row>
     <row r="311">
-      <c r="F311" s="12"/>
+      <c r="I311" s="14"/>
     </row>
     <row r="312">
-      <c r="F312" s="12"/>
+      <c r="I312" s="14"/>
     </row>
     <row r="313">
-      <c r="F313" s="12"/>
+      <c r="I313" s="14"/>
     </row>
     <row r="314">
-      <c r="F314" s="12"/>
+      <c r="I314" s="14"/>
     </row>
     <row r="315">
-      <c r="F315" s="12"/>
+      <c r="I315" s="14"/>
     </row>
     <row r="316">
-      <c r="F316" s="12"/>
+      <c r="I316" s="14"/>
     </row>
     <row r="317">
-      <c r="F317" s="12"/>
+      <c r="I317" s="14"/>
     </row>
     <row r="318">
-      <c r="F318" s="12"/>
+      <c r="I318" s="14"/>
     </row>
     <row r="319">
-      <c r="F319" s="12"/>
+      <c r="I319" s="14"/>
     </row>
     <row r="320">
-      <c r="F320" s="12"/>
+      <c r="I320" s="14"/>
     </row>
     <row r="321">
-      <c r="F321" s="12"/>
+      <c r="I321" s="14"/>
     </row>
     <row r="322">
-      <c r="F322" s="12"/>
+      <c r="I322" s="14"/>
     </row>
     <row r="323">
-      <c r="F323" s="12"/>
+      <c r="I323" s="14"/>
     </row>
     <row r="324">
-      <c r="F324" s="12"/>
+      <c r="I324" s="14"/>
     </row>
     <row r="325">
-      <c r="F325" s="12"/>
+      <c r="I325" s="14"/>
     </row>
     <row r="326">
-      <c r="F326" s="12"/>
+      <c r="I326" s="14"/>
     </row>
     <row r="327">
-      <c r="F327" s="12"/>
+      <c r="I327" s="14"/>
     </row>
     <row r="328">
-      <c r="F328" s="12"/>
+      <c r="I328" s="14"/>
     </row>
     <row r="329">
-      <c r="F329" s="12"/>
+      <c r="I329" s="14"/>
     </row>
     <row r="330">
-      <c r="F330" s="12"/>
+      <c r="I330" s="14"/>
     </row>
     <row r="331">
-      <c r="F331" s="12"/>
+      <c r="I331" s="14"/>
     </row>
     <row r="332">
-      <c r="F332" s="12"/>
+      <c r="I332" s="14"/>
     </row>
     <row r="333">
-      <c r="F333" s="12"/>
+      <c r="I333" s="14"/>
     </row>
     <row r="334">
-      <c r="F334" s="12"/>
+      <c r="I334" s="14"/>
     </row>
     <row r="335">
-      <c r="F335" s="12"/>
+      <c r="I335" s="14"/>
     </row>
     <row r="336">
-      <c r="F336" s="12"/>
+      <c r="I336" s="14"/>
     </row>
     <row r="337">
-      <c r="F337" s="12"/>
+      <c r="I337" s="14"/>
     </row>
     <row r="338">
-      <c r="F338" s="12"/>
+      <c r="I338" s="14"/>
     </row>
     <row r="339">
-      <c r="F339" s="12"/>
+      <c r="I339" s="14"/>
     </row>
     <row r="340">
-      <c r="F340" s="12"/>
+      <c r="I340" s="14"/>
     </row>
     <row r="341">
-      <c r="F341" s="12"/>
+      <c r="I341" s="14"/>
     </row>
     <row r="342">
-      <c r="F342" s="12"/>
+      <c r="I342" s="14"/>
     </row>
     <row r="343">
-      <c r="F343" s="12"/>
+      <c r="I343" s="14"/>
     </row>
     <row r="344">
-      <c r="F344" s="12"/>
+      <c r="I344" s="14"/>
     </row>
     <row r="345">
-      <c r="F345" s="12"/>
+      <c r="I345" s="14"/>
     </row>
     <row r="346">
-      <c r="F346" s="12"/>
+      <c r="I346" s="14"/>
     </row>
     <row r="347">
-      <c r="F347" s="12"/>
+      <c r="I347" s="14"/>
     </row>
     <row r="348">
-      <c r="F348" s="12"/>
+      <c r="I348" s="14"/>
     </row>
     <row r="349">
-      <c r="F349" s="12"/>
+      <c r="I349" s="14"/>
     </row>
     <row r="350">
-      <c r="F350" s="12"/>
+      <c r="I350" s="14"/>
     </row>
     <row r="351">
-      <c r="F351" s="12"/>
+      <c r="I351" s="14"/>
     </row>
     <row r="352">
-      <c r="F352" s="12"/>
+      <c r="I352" s="14"/>
     </row>
     <row r="353">
-      <c r="F353" s="12"/>
+      <c r="I353" s="14"/>
     </row>
     <row r="354">
-      <c r="F354" s="12"/>
+      <c r="I354" s="14"/>
     </row>
     <row r="355">
-      <c r="F355" s="12"/>
+      <c r="I355" s="14"/>
     </row>
     <row r="356">
-      <c r="F356" s="12"/>
+      <c r="I356" s="14"/>
     </row>
     <row r="357">
-      <c r="F357" s="12"/>
+      <c r="I357" s="14"/>
     </row>
     <row r="358">
-      <c r="F358" s="12"/>
+      <c r="I358" s="14"/>
     </row>
     <row r="359">
-      <c r="F359" s="12"/>
+      <c r="I359" s="14"/>
     </row>
     <row r="360">
-      <c r="F360" s="12"/>
+      <c r="I360" s="14"/>
     </row>
     <row r="361">
-      <c r="F361" s="12"/>
+      <c r="I361" s="14"/>
     </row>
     <row r="362">
-      <c r="F362" s="12"/>
+      <c r="I362" s="14"/>
     </row>
     <row r="363">
-      <c r="F363" s="12"/>
+      <c r="I363" s="14"/>
     </row>
     <row r="364">
-      <c r="F364" s="12"/>
+      <c r="I364" s="14"/>
     </row>
     <row r="365">
-      <c r="F365" s="12"/>
+      <c r="I365" s="14"/>
     </row>
     <row r="366">
-      <c r="F366" s="12"/>
+      <c r="I366" s="14"/>
     </row>
     <row r="367">
-      <c r="F367" s="12"/>
+      <c r="I367" s="14"/>
     </row>
     <row r="368">
-      <c r="F368" s="12"/>
+      <c r="I368" s="14"/>
     </row>
     <row r="369">
-      <c r="F369" s="12"/>
+      <c r="I369" s="14"/>
     </row>
     <row r="370">
-      <c r="F370" s="12"/>
+      <c r="I370" s="14"/>
     </row>
     <row r="371">
-      <c r="F371" s="12"/>
+      <c r="I371" s="14"/>
     </row>
     <row r="372">
-      <c r="F372" s="12"/>
+      <c r="I372" s="14"/>
     </row>
     <row r="373">
-      <c r="F373" s="12"/>
+      <c r="I373" s="14"/>
     </row>
     <row r="374">
-      <c r="F374" s="12"/>
+      <c r="I374" s="14"/>
     </row>
     <row r="375">
-      <c r="F375" s="12"/>
+      <c r="I375" s="14"/>
     </row>
     <row r="376">
-      <c r="F376" s="12"/>
+      <c r="I376" s="14"/>
     </row>
     <row r="377">
-      <c r="F377" s="12"/>
+      <c r="I377" s="14"/>
     </row>
     <row r="378">
-      <c r="F378" s="12"/>
+      <c r="I378" s="14"/>
     </row>
     <row r="379">
-      <c r="F379" s="12"/>
+      <c r="I379" s="14"/>
     </row>
     <row r="380">
-      <c r="F380" s="12"/>
+      <c r="I380" s="14"/>
     </row>
     <row r="381">
-      <c r="F381" s="12"/>
+      <c r="I381" s="14"/>
     </row>
     <row r="382">
-      <c r="F382" s="12"/>
+      <c r="I382" s="14"/>
     </row>
     <row r="383">
-      <c r="F383" s="12"/>
+      <c r="I383" s="14"/>
     </row>
     <row r="384">
-      <c r="F384" s="12"/>
+      <c r="I384" s="14"/>
     </row>
     <row r="385">
-      <c r="F385" s="12"/>
+      <c r="I385" s="14"/>
     </row>
     <row r="386">
-      <c r="F386" s="12"/>
+      <c r="I386" s="14"/>
     </row>
     <row r="387">
-      <c r="F387" s="12"/>
+      <c r="I387" s="14"/>
     </row>
     <row r="388">
-      <c r="F388" s="12"/>
+      <c r="I388" s="14"/>
     </row>
     <row r="389">
-      <c r="F389" s="12"/>
+      <c r="I389" s="14"/>
     </row>
     <row r="390">
-      <c r="F390" s="12"/>
+      <c r="I390" s="14"/>
     </row>
     <row r="391">
-      <c r="F391" s="12"/>
+      <c r="I391" s="14"/>
     </row>
     <row r="392">
-      <c r="F392" s="12"/>
+      <c r="I392" s="14"/>
     </row>
     <row r="393">
-      <c r="F393" s="12"/>
+      <c r="I393" s="14"/>
     </row>
     <row r="394">
-      <c r="F394" s="12"/>
+      <c r="I394" s="14"/>
     </row>
     <row r="395">
-      <c r="F395" s="12"/>
+      <c r="I395" s="14"/>
     </row>
     <row r="396">
-      <c r="F396" s="12"/>
+      <c r="I396" s="14"/>
     </row>
     <row r="397">
-      <c r="F397" s="12"/>
+      <c r="I397" s="14"/>
     </row>
     <row r="398">
-      <c r="F398" s="12"/>
+      <c r="I398" s="14"/>
     </row>
     <row r="399">
-      <c r="F399" s="12"/>
+      <c r="I399" s="14"/>
     </row>
     <row r="400">
-      <c r="F400" s="12"/>
+      <c r="I400" s="14"/>
     </row>
     <row r="401">
-      <c r="F401" s="12"/>
+      <c r="I401" s="14"/>
     </row>
     <row r="402">
-      <c r="F402" s="12"/>
+      <c r="I402" s="14"/>
     </row>
     <row r="403">
-      <c r="F403" s="12"/>
+      <c r="I403" s="14"/>
     </row>
     <row r="404">
-      <c r="F404" s="12"/>
+      <c r="I404" s="14"/>
     </row>
     <row r="405">
-      <c r="F405" s="12"/>
+      <c r="I405" s="14"/>
     </row>
     <row r="406">
-      <c r="F406" s="12"/>
+      <c r="I406" s="14"/>
     </row>
     <row r="407">
-      <c r="F407" s="12"/>
+      <c r="I407" s="14"/>
     </row>
     <row r="408">
-      <c r="F408" s="12"/>
+      <c r="I408" s="14"/>
     </row>
     <row r="409">
-      <c r="F409" s="12"/>
+      <c r="I409" s="14"/>
     </row>
     <row r="410">
-      <c r="F410" s="12"/>
+      <c r="I410" s="14"/>
     </row>
     <row r="411">
-      <c r="F411" s="12"/>
+      <c r="I411" s="14"/>
     </row>
     <row r="412">
-      <c r="F412" s="12"/>
+      <c r="I412" s="14"/>
     </row>
     <row r="413">
-      <c r="F413" s="12"/>
+      <c r="I413" s="14"/>
     </row>
     <row r="414">
-      <c r="F414" s="12"/>
+      <c r="I414" s="14"/>
     </row>
     <row r="415">
-      <c r="F415" s="12"/>
+      <c r="I415" s="14"/>
     </row>
     <row r="416">
-      <c r="F416" s="12"/>
+      <c r="I416" s="14"/>
     </row>
     <row r="417">
-      <c r="F417" s="12"/>
+      <c r="I417" s="14"/>
     </row>
     <row r="418">
-      <c r="F418" s="12"/>
+      <c r="I418" s="14"/>
     </row>
     <row r="419">
-      <c r="F419" s="12"/>
+      <c r="I419" s="14"/>
     </row>
     <row r="420">
-      <c r="F420" s="12"/>
+      <c r="I420" s="14"/>
     </row>
     <row r="421">
-      <c r="F421" s="12"/>
+      <c r="I421" s="14"/>
     </row>
     <row r="422">
-      <c r="F422" s="12"/>
+      <c r="I422" s="14"/>
     </row>
     <row r="423">
-      <c r="F423" s="12"/>
+      <c r="I423" s="14"/>
     </row>
     <row r="424">
-      <c r="F424" s="12"/>
+      <c r="I424" s="14"/>
     </row>
     <row r="425">
-      <c r="F425" s="12"/>
+      <c r="I425" s="14"/>
     </row>
     <row r="426">
-      <c r="F426" s="12"/>
+      <c r="I426" s="14"/>
     </row>
     <row r="427">
-      <c r="F427" s="12"/>
+      <c r="I427" s="14"/>
     </row>
     <row r="428">
-      <c r="F428" s="12"/>
+      <c r="I428" s="14"/>
     </row>
     <row r="429">
-      <c r="F429" s="12"/>
+      <c r="I429" s="14"/>
     </row>
     <row r="430">
-      <c r="F430" s="12"/>
+      <c r="I430" s="14"/>
     </row>
     <row r="431">
-      <c r="F431" s="12"/>
+      <c r="I431" s="14"/>
     </row>
     <row r="432">
-      <c r="F432" s="12"/>
+      <c r="I432" s="14"/>
     </row>
     <row r="433">
-      <c r="F433" s="12"/>
+      <c r="I433" s="14"/>
     </row>
     <row r="434">
-      <c r="F434" s="12"/>
+      <c r="I434" s="14"/>
     </row>
     <row r="435">
-      <c r="F435" s="12"/>
+      <c r="I435" s="14"/>
     </row>
     <row r="436">
-      <c r="F436" s="12"/>
+      <c r="I436" s="14"/>
     </row>
     <row r="437">
-      <c r="F437" s="12"/>
+      <c r="I437" s="14"/>
     </row>
     <row r="438">
-      <c r="F438" s="12"/>
+      <c r="I438" s="14"/>
     </row>
     <row r="439">
-      <c r="F439" s="12"/>
+      <c r="I439" s="14"/>
     </row>
     <row r="440">
-      <c r="F440" s="12"/>
+      <c r="I440" s="14"/>
     </row>
     <row r="441">
-      <c r="F441" s="12"/>
+      <c r="I441" s="14"/>
     </row>
     <row r="442">
-      <c r="F442" s="12"/>
+      <c r="I442" s="14"/>
     </row>
     <row r="443">
-      <c r="F443" s="12"/>
+      <c r="I443" s="14"/>
     </row>
     <row r="444">
-      <c r="F444" s="12"/>
+      <c r="I444" s="14"/>
     </row>
     <row r="445">
-      <c r="F445" s="12"/>
+      <c r="I445" s="14"/>
     </row>
     <row r="446">
-      <c r="F446" s="12"/>
+      <c r="I446" s="14"/>
     </row>
     <row r="447">
-      <c r="F447" s="12"/>
+      <c r="I447" s="14"/>
     </row>
     <row r="448">
-      <c r="F448" s="12"/>
+      <c r="I448" s="14"/>
     </row>
     <row r="449">
-      <c r="F449" s="12"/>
+      <c r="I449" s="14"/>
     </row>
     <row r="450">
-      <c r="F450" s="12"/>
+      <c r="I450" s="14"/>
     </row>
     <row r="451">
-      <c r="F451" s="12"/>
+      <c r="I451" s="14"/>
     </row>
     <row r="452">
-      <c r="F452" s="12"/>
+      <c r="I452" s="14"/>
     </row>
     <row r="453">
-      <c r="F453" s="12"/>
+      <c r="I453" s="14"/>
     </row>
     <row r="454">
-      <c r="F454" s="12"/>
+      <c r="I454" s="14"/>
     </row>
     <row r="455">
-      <c r="F455" s="12"/>
+      <c r="I455" s="14"/>
     </row>
     <row r="456">
-      <c r="F456" s="12"/>
+      <c r="I456" s="14"/>
     </row>
     <row r="457">
-      <c r="F457" s="12"/>
+      <c r="I457" s="14"/>
     </row>
     <row r="458">
-      <c r="F458" s="12"/>
+      <c r="I458" s="14"/>
     </row>
     <row r="459">
-      <c r="F459" s="12"/>
+      <c r="I459" s="14"/>
     </row>
     <row r="460">
-      <c r="F460" s="12"/>
+      <c r="I460" s="14"/>
     </row>
     <row r="461">
-      <c r="F461" s="12"/>
+      <c r="I461" s="14"/>
     </row>
     <row r="462">
-      <c r="F462" s="12"/>
+      <c r="I462" s="14"/>
     </row>
     <row r="463">
-      <c r="F463" s="12"/>
+      <c r="I463" s="14"/>
     </row>
     <row r="464">
-      <c r="F464" s="12"/>
+      <c r="I464" s="14"/>
     </row>
     <row r="465">
-      <c r="F465" s="12"/>
+      <c r="I465" s="14"/>
     </row>
     <row r="466">
-      <c r="F466" s="12"/>
+      <c r="I466" s="14"/>
     </row>
     <row r="467">
-      <c r="F467" s="12"/>
+      <c r="I467" s="14"/>
     </row>
     <row r="468">
-      <c r="F468" s="12"/>
+      <c r="I468" s="14"/>
     </row>
     <row r="469">
-      <c r="F469" s="12"/>
+      <c r="I469" s="14"/>
     </row>
     <row r="470">
-      <c r="F470" s="12"/>
+      <c r="I470" s="14"/>
     </row>
     <row r="471">
-      <c r="F471" s="12"/>
+      <c r="I471" s="14"/>
     </row>
     <row r="472">
-      <c r="F472" s="12"/>
+      <c r="I472" s="14"/>
     </row>
     <row r="473">
-      <c r="F473" s="12"/>
+      <c r="I473" s="14"/>
     </row>
     <row r="474">
-      <c r="F474" s="12"/>
+      <c r="I474" s="14"/>
     </row>
     <row r="475">
-      <c r="F475" s="12"/>
+      <c r="I475" s="14"/>
     </row>
     <row r="476">
-      <c r="F476" s="12"/>
+      <c r="I476" s="14"/>
     </row>
     <row r="477">
-      <c r="F477" s="12"/>
+      <c r="I477" s="14"/>
     </row>
     <row r="478">
-      <c r="F478" s="12"/>
+      <c r="I478" s="14"/>
     </row>
     <row r="479">
-      <c r="F479" s="12"/>
+      <c r="I479" s="14"/>
     </row>
     <row r="480">
-      <c r="F480" s="12"/>
+      <c r="I480" s="14"/>
     </row>
     <row r="481">
-      <c r="F481" s="12"/>
+      <c r="I481" s="14"/>
     </row>
     <row r="482">
-      <c r="F482" s="12"/>
+      <c r="I482" s="14"/>
     </row>
     <row r="483">
-      <c r="F483" s="12"/>
+      <c r="I483" s="14"/>
     </row>
     <row r="484">
-      <c r="F484" s="12"/>
+      <c r="I484" s="14"/>
     </row>
     <row r="485">
-      <c r="F485" s="12"/>
+      <c r="I485" s="14"/>
     </row>
     <row r="486">
-      <c r="F486" s="12"/>
+      <c r="I486" s="14"/>
     </row>
     <row r="487">
-      <c r="F487" s="12"/>
+      <c r="I487" s="14"/>
     </row>
     <row r="488">
-      <c r="F488" s="12"/>
+      <c r="I488" s="14"/>
     </row>
     <row r="489">
-      <c r="F489" s="12"/>
+      <c r="I489" s="14"/>
     </row>
     <row r="490">
-      <c r="F490" s="12"/>
+      <c r="I490" s="14"/>
     </row>
     <row r="491">
-      <c r="F491" s="12"/>
+      <c r="I491" s="14"/>
     </row>
     <row r="492">
-      <c r="F492" s="12"/>
+      <c r="I492" s="14"/>
     </row>
     <row r="493">
-      <c r="F493" s="12"/>
+      <c r="I493" s="14"/>
     </row>
     <row r="494">
-      <c r="F494" s="12"/>
+      <c r="I494" s="14"/>
     </row>
     <row r="495">
-      <c r="F495" s="12"/>
+      <c r="I495" s="14"/>
     </row>
     <row r="496">
-      <c r="F496" s="12"/>
+      <c r="I496" s="14"/>
     </row>
     <row r="497">
-      <c r="F497" s="12"/>
+      <c r="I497" s="14"/>
     </row>
     <row r="498">
-      <c r="F498" s="12"/>
+      <c r="I498" s="14"/>
     </row>
     <row r="499">
-      <c r="F499" s="12"/>
+      <c r="I499" s="14"/>
     </row>
     <row r="500">
-      <c r="F500" s="12"/>
+      <c r="I500" s="14"/>
     </row>
     <row r="501">
-      <c r="F501" s="12"/>
+      <c r="I501" s="14"/>
     </row>
     <row r="502">
-      <c r="F502" s="12"/>
+      <c r="I502" s="14"/>
     </row>
     <row r="503">
-      <c r="F503" s="12"/>
+      <c r="I503" s="14"/>
     </row>
     <row r="504">
-      <c r="F504" s="12"/>
+      <c r="I504" s="14"/>
     </row>
     <row r="505">
-      <c r="F505" s="12"/>
+      <c r="I505" s="14"/>
     </row>
     <row r="506">
-      <c r="F506" s="12"/>
+      <c r="I506" s="14"/>
     </row>
     <row r="507">
-      <c r="F507" s="12"/>
+      <c r="I507" s="14"/>
     </row>
     <row r="508">
-      <c r="F508" s="12"/>
+      <c r="I508" s="14"/>
     </row>
     <row r="509">
-      <c r="F509" s="12"/>
+      <c r="I509" s="14"/>
     </row>
     <row r="510">
-      <c r="F510" s="12"/>
+      <c r="I510" s="14"/>
     </row>
     <row r="511">
-      <c r="F511" s="12"/>
+      <c r="I511" s="14"/>
     </row>
     <row r="512">
-      <c r="F512" s="12"/>
+      <c r="I512" s="14"/>
     </row>
     <row r="513">
-      <c r="F513" s="12"/>
+      <c r="I513" s="14"/>
     </row>
     <row r="514">
-      <c r="F514" s="12"/>
+      <c r="I514" s="14"/>
     </row>
     <row r="515">
-      <c r="F515" s="12"/>
+      <c r="I515" s="14"/>
     </row>
     <row r="516">
-      <c r="F516" s="12"/>
+      <c r="I516" s="14"/>
     </row>
     <row r="517">
-      <c r="F517" s="12"/>
+      <c r="I517" s="14"/>
     </row>
     <row r="518">
-      <c r="F518" s="12"/>
+      <c r="I518" s="14"/>
     </row>
     <row r="519">
-      <c r="F519" s="12"/>
+      <c r="I519" s="14"/>
     </row>
     <row r="520">
-      <c r="F520" s="12"/>
+      <c r="I520" s="14"/>
     </row>
     <row r="521">
-      <c r="F521" s="12"/>
+      <c r="I521" s="14"/>
     </row>
     <row r="522">
-      <c r="F522" s="12"/>
+      <c r="I522" s="14"/>
     </row>
     <row r="523">
-      <c r="F523" s="12"/>
+      <c r="I523" s="14"/>
     </row>
     <row r="524">
-      <c r="F524" s="12"/>
+      <c r="I524" s="14"/>
     </row>
     <row r="525">
-      <c r="F525" s="12"/>
+      <c r="I525" s="14"/>
     </row>
     <row r="526">
-      <c r="F526" s="12"/>
+      <c r="I526" s="14"/>
     </row>
     <row r="527">
-      <c r="F527" s="12"/>
+      <c r="I527" s="14"/>
     </row>
     <row r="528">
-      <c r="F528" s="12"/>
+      <c r="I528" s="14"/>
     </row>
     <row r="529">
-      <c r="F529" s="12"/>
+      <c r="I529" s="14"/>
     </row>
     <row r="530">
-      <c r="F530" s="12"/>
+      <c r="I530" s="14"/>
     </row>
     <row r="531">
-      <c r="F531" s="12"/>
+      <c r="I531" s="14"/>
     </row>
     <row r="532">
-      <c r="F532" s="12"/>
+      <c r="I532" s="14"/>
     </row>
     <row r="533">
-      <c r="F533" s="12"/>
+      <c r="I533" s="14"/>
     </row>
     <row r="534">
-      <c r="F534" s="12"/>
+      <c r="I534" s="14"/>
     </row>
     <row r="535">
-      <c r="F535" s="12"/>
+      <c r="I535" s="14"/>
     </row>
     <row r="536">
-      <c r="F536" s="12"/>
+      <c r="I536" s="14"/>
     </row>
     <row r="537">
-      <c r="F537" s="12"/>
+      <c r="I537" s="14"/>
     </row>
     <row r="538">
-      <c r="F538" s="12"/>
+      <c r="I538" s="14"/>
     </row>
     <row r="539">
-      <c r="F539" s="12"/>
+      <c r="I539" s="14"/>
     </row>
     <row r="540">
-      <c r="F540" s="12"/>
+      <c r="I540" s="14"/>
     </row>
     <row r="541">
-      <c r="F541" s="12"/>
+      <c r="I541" s="14"/>
     </row>
     <row r="542">
-      <c r="F542" s="12"/>
+      <c r="I542" s="14"/>
     </row>
     <row r="543">
-      <c r="F543" s="12"/>
+      <c r="I543" s="14"/>
     </row>
     <row r="544">
-      <c r="F544" s="12"/>
+      <c r="I544" s="14"/>
     </row>
     <row r="545">
-      <c r="F545" s="12"/>
+      <c r="I545" s="14"/>
     </row>
     <row r="546">
-      <c r="F546" s="12"/>
+      <c r="I546" s="14"/>
     </row>
     <row r="547">
-      <c r="F547" s="12"/>
+      <c r="I547" s="14"/>
     </row>
     <row r="548">
-      <c r="F548" s="12"/>
+      <c r="I548" s="14"/>
     </row>
     <row r="549">
-      <c r="F549" s="12"/>
+      <c r="I549" s="14"/>
     </row>
     <row r="550">
-      <c r="F550" s="12"/>
+      <c r="I550" s="14"/>
     </row>
     <row r="551">
-      <c r="F551" s="12"/>
+      <c r="I551" s="14"/>
     </row>
     <row r="552">
-      <c r="F552" s="12"/>
+      <c r="I552" s="14"/>
     </row>
     <row r="553">
-      <c r="F553" s="12"/>
+      <c r="I553" s="14"/>
     </row>
     <row r="554">
-      <c r="F554" s="12"/>
+      <c r="I554" s="14"/>
     </row>
     <row r="555">
-      <c r="F555" s="12"/>
+      <c r="I555" s="14"/>
     </row>
     <row r="556">
-      <c r="F556" s="12"/>
+      <c r="I556" s="14"/>
     </row>
     <row r="557">
-      <c r="F557" s="12"/>
+      <c r="I557" s="14"/>
     </row>
     <row r="558">
-      <c r="F558" s="12"/>
+      <c r="I558" s="14"/>
     </row>
     <row r="559">
-      <c r="F559" s="12"/>
+      <c r="I559" s="14"/>
     </row>
     <row r="560">
-      <c r="F560" s="12"/>
+      <c r="I560" s="14"/>
     </row>
     <row r="561">
-      <c r="F561" s="12"/>
+      <c r="I561" s="14"/>
     </row>
     <row r="562">
-      <c r="F562" s="12"/>
+      <c r="I562" s="14"/>
     </row>
     <row r="563">
-      <c r="F563" s="12"/>
+      <c r="I563" s="14"/>
     </row>
     <row r="564">
-      <c r="F564" s="12"/>
+      <c r="I564" s="14"/>
     </row>
     <row r="565">
-      <c r="F565" s="12"/>
+      <c r="I565" s="14"/>
     </row>
     <row r="566">
-      <c r="F566" s="12"/>
+      <c r="I566" s="14"/>
     </row>
     <row r="567">
-      <c r="F567" s="12"/>
+      <c r="I567" s="14"/>
     </row>
     <row r="568">
-      <c r="F568" s="12"/>
+      <c r="I568" s="14"/>
     </row>
     <row r="569">
-      <c r="F569" s="12"/>
+      <c r="I569" s="14"/>
     </row>
     <row r="570">
-      <c r="F570" s="12"/>
+      <c r="I570" s="14"/>
     </row>
     <row r="571">
-      <c r="F571" s="12"/>
+      <c r="I571" s="14"/>
     </row>
     <row r="572">
-      <c r="F572" s="12"/>
+      <c r="I572" s="14"/>
     </row>
     <row r="573">
-      <c r="F573" s="12"/>
+      <c r="I573" s="14"/>
     </row>
     <row r="574">
-      <c r="F574" s="12"/>
+      <c r="I574" s="14"/>
     </row>
     <row r="575">
-      <c r="F575" s="12"/>
+      <c r="I575" s="14"/>
     </row>
     <row r="576">
-      <c r="F576" s="12"/>
+      <c r="I576" s="14"/>
     </row>
     <row r="577">
-      <c r="F577" s="12"/>
+      <c r="I577" s="14"/>
     </row>
     <row r="578">
-      <c r="F578" s="12"/>
+      <c r="I578" s="14"/>
     </row>
     <row r="579">
-      <c r="F579" s="12"/>
+      <c r="I579" s="14"/>
     </row>
     <row r="580">
-      <c r="F580" s="12"/>
+      <c r="I580" s="14"/>
     </row>
     <row r="581">
-      <c r="F581" s="12"/>
+      <c r="I581" s="14"/>
     </row>
     <row r="582">
-      <c r="F582" s="12"/>
+      <c r="I582" s="14"/>
     </row>
     <row r="583">
-      <c r="F583" s="12"/>
+      <c r="I583" s="14"/>
     </row>
     <row r="584">
-      <c r="F584" s="12"/>
+      <c r="I584" s="14"/>
     </row>
     <row r="585">
-      <c r="F585" s="12"/>
+      <c r="I585" s="14"/>
     </row>
     <row r="586">
-      <c r="F586" s="12"/>
+      <c r="I586" s="14"/>
     </row>
     <row r="587">
-      <c r="F587" s="12"/>
+      <c r="I587" s="14"/>
     </row>
     <row r="588">
-      <c r="F588" s="12"/>
+      <c r="I588" s="14"/>
     </row>
     <row r="589">
-      <c r="F589" s="12"/>
+      <c r="I589" s="14"/>
     </row>
     <row r="590">
-      <c r="F590" s="12"/>
+      <c r="I590" s="14"/>
     </row>
     <row r="591">
-      <c r="F591" s="12"/>
+      <c r="I591" s="14"/>
     </row>
     <row r="592">
-      <c r="F592" s="12"/>
+      <c r="I592" s="14"/>
     </row>
     <row r="593">
-      <c r="F593" s="12"/>
+      <c r="I593" s="14"/>
     </row>
     <row r="594">
-      <c r="F594" s="12"/>
+      <c r="I594" s="14"/>
     </row>
     <row r="595">
-      <c r="F595" s="12"/>
+      <c r="I595" s="14"/>
     </row>
     <row r="596">
-      <c r="F596" s="12"/>
+      <c r="I596" s="14"/>
     </row>
     <row r="597">
-      <c r="F597" s="12"/>
+      <c r="I597" s="14"/>
     </row>
     <row r="598">
-      <c r="F598" s="12"/>
+      <c r="I598" s="14"/>
     </row>
     <row r="599">
-      <c r="F599" s="12"/>
+      <c r="I599" s="14"/>
     </row>
     <row r="600">
-      <c r="F600" s="12"/>
+      <c r="I600" s="14"/>
     </row>
     <row r="601">
-      <c r="F601" s="12"/>
+      <c r="I601" s="14"/>
     </row>
     <row r="602">
-      <c r="F602" s="12"/>
+      <c r="I602" s="14"/>
     </row>
     <row r="603">
-      <c r="F603" s="12"/>
+      <c r="I603" s="14"/>
     </row>
     <row r="604">
-      <c r="F604" s="12"/>
+      <c r="I604" s="14"/>
     </row>
     <row r="605">
-      <c r="F605" s="12"/>
+      <c r="I605" s="14"/>
     </row>
     <row r="606">
-      <c r="F606" s="12"/>
+      <c r="I606" s="14"/>
     </row>
     <row r="607">
-      <c r="F607" s="12"/>
+      <c r="I607" s="14"/>
     </row>
     <row r="608">
-      <c r="F608" s="12"/>
+      <c r="I608" s="14"/>
     </row>
     <row r="609">
-      <c r="F609" s="12"/>
+      <c r="I609" s="14"/>
     </row>
     <row r="610">
-      <c r="F610" s="12"/>
+      <c r="I610" s="14"/>
     </row>
     <row r="611">
-      <c r="F611" s="12"/>
+      <c r="I611" s="14"/>
     </row>
     <row r="612">
-      <c r="F612" s="12"/>
+      <c r="I612" s="14"/>
     </row>
     <row r="613">
-      <c r="F613" s="12"/>
+      <c r="I613" s="14"/>
     </row>
     <row r="614">
-      <c r="F614" s="12"/>
+      <c r="I614" s="14"/>
     </row>
     <row r="615">
-      <c r="F615" s="12"/>
+      <c r="I615" s="14"/>
     </row>
     <row r="616">
-      <c r="F616" s="12"/>
+      <c r="I616" s="14"/>
     </row>
     <row r="617">
-      <c r="F617" s="12"/>
+      <c r="I617" s="14"/>
     </row>
     <row r="618">
-      <c r="F618" s="12"/>
+      <c r="I618" s="14"/>
     </row>
     <row r="619">
-      <c r="F619" s="12"/>
+      <c r="I619" s="14"/>
     </row>
     <row r="620">
-      <c r="F620" s="12"/>
+      <c r="I620" s="14"/>
     </row>
     <row r="621">
-      <c r="F621" s="12"/>
+      <c r="I621" s="14"/>
     </row>
     <row r="622">
-      <c r="F622" s="12"/>
+      <c r="I622" s="14"/>
     </row>
     <row r="623">
-      <c r="F623" s="12"/>
+      <c r="I623" s="14"/>
     </row>
     <row r="624">
-      <c r="F624" s="12"/>
+      <c r="I624" s="14"/>
     </row>
     <row r="625">
-      <c r="F625" s="12"/>
+      <c r="I625" s="14"/>
     </row>
     <row r="626">
-      <c r="F626" s="12"/>
+      <c r="I626" s="14"/>
     </row>
     <row r="627">
-      <c r="F627" s="12"/>
+      <c r="I627" s="14"/>
     </row>
     <row r="628">
-      <c r="F628" s="12"/>
+      <c r="I628" s="14"/>
     </row>
     <row r="629">
-      <c r="F629" s="12"/>
+      <c r="I629" s="14"/>
     </row>
     <row r="630">
-      <c r="F630" s="12"/>
+      <c r="I630" s="14"/>
     </row>
     <row r="631">
-      <c r="F631" s="12"/>
+      <c r="I631" s="14"/>
     </row>
     <row r="632">
-      <c r="F632" s="12"/>
+      <c r="I632" s="14"/>
     </row>
     <row r="633">
-      <c r="F633" s="12"/>
+      <c r="I633" s="14"/>
     </row>
     <row r="634">
-      <c r="F634" s="12"/>
+      <c r="I634" s="14"/>
     </row>
     <row r="635">
-      <c r="F635" s="12"/>
+      <c r="I635" s="14"/>
     </row>
     <row r="636">
-      <c r="F636" s="12"/>
+      <c r="I636" s="14"/>
     </row>
     <row r="637">
-      <c r="F637" s="12"/>
+      <c r="I637" s="14"/>
     </row>
     <row r="638">
-      <c r="F638" s="12"/>
+      <c r="I638" s="14"/>
     </row>
     <row r="639">
-      <c r="F639" s="12"/>
+      <c r="I639" s="14"/>
     </row>
     <row r="640">
-      <c r="F640" s="12"/>
+      <c r="I640" s="14"/>
     </row>
     <row r="641">
-      <c r="F641" s="12"/>
+      <c r="I641" s="14"/>
     </row>
     <row r="642">
-      <c r="F642" s="12"/>
+      <c r="I642" s="14"/>
     </row>
     <row r="643">
-      <c r="F643" s="12"/>
+      <c r="I643" s="14"/>
     </row>
     <row r="644">
-      <c r="F644" s="12"/>
+      <c r="I644" s="14"/>
     </row>
     <row r="645">
-      <c r="F645" s="12"/>
+      <c r="I645" s="14"/>
     </row>
     <row r="646">
-      <c r="F646" s="12"/>
+      <c r="I646" s="14"/>
     </row>
     <row r="647">
-      <c r="F647" s="12"/>
+      <c r="I647" s="14"/>
     </row>
     <row r="648">
-      <c r="F648" s="12"/>
+      <c r="I648" s="14"/>
     </row>
     <row r="649">
-      <c r="F649" s="12"/>
+      <c r="I649" s="14"/>
     </row>
     <row r="650">
-      <c r="F650" s="12"/>
+      <c r="I650" s="14"/>
     </row>
     <row r="651">
-      <c r="F651" s="12"/>
+      <c r="I651" s="14"/>
     </row>
     <row r="652">
-      <c r="F652" s="12"/>
+      <c r="I652" s="14"/>
     </row>
     <row r="653">
-      <c r="F653" s="12"/>
+      <c r="I653" s="14"/>
     </row>
     <row r="654">
-      <c r="F654" s="12"/>
+      <c r="I654" s="14"/>
     </row>
     <row r="655">
-      <c r="F655" s="12"/>
+      <c r="I655" s="14"/>
     </row>
     <row r="656">
-      <c r="F656" s="12"/>
+      <c r="I656" s="14"/>
     </row>
     <row r="657">
-      <c r="F657" s="12"/>
+      <c r="I657" s="14"/>
     </row>
     <row r="658">
-      <c r="F658" s="12"/>
+      <c r="I658" s="14"/>
     </row>
     <row r="659">
-      <c r="F659" s="12"/>
+      <c r="I659" s="14"/>
     </row>
     <row r="660">
-      <c r="F660" s="12"/>
+      <c r="I660" s="14"/>
     </row>
     <row r="661">
-      <c r="F661" s="12"/>
+      <c r="I661" s="14"/>
     </row>
     <row r="662">
-      <c r="F662" s="12"/>
+      <c r="I662" s="14"/>
     </row>
     <row r="663">
-      <c r="F663" s="12"/>
+      <c r="I663" s="14"/>
     </row>
     <row r="664">
-      <c r="F664" s="12"/>
+      <c r="I664" s="14"/>
     </row>
     <row r="665">
-      <c r="F665" s="12"/>
+      <c r="I665" s="14"/>
     </row>
     <row r="666">
-      <c r="F666" s="12"/>
+      <c r="I666" s="14"/>
     </row>
     <row r="667">
-      <c r="F667" s="12"/>
+      <c r="I667" s="14"/>
     </row>
     <row r="668">
-      <c r="F668" s="12"/>
+      <c r="I668" s="14"/>
     </row>
     <row r="669">
-      <c r="F669" s="12"/>
+      <c r="I669" s="14"/>
     </row>
     <row r="670">
-      <c r="F670" s="12"/>
+      <c r="I670" s="14"/>
     </row>
     <row r="671">
-      <c r="F671" s="12"/>
+      <c r="I671" s="14"/>
     </row>
     <row r="672">
-      <c r="F672" s="12"/>
+      <c r="I672" s="14"/>
     </row>
     <row r="673">
-      <c r="F673" s="12"/>
+      <c r="I673" s="14"/>
     </row>
     <row r="674">
-      <c r="F674" s="12"/>
+      <c r="I674" s="14"/>
     </row>
     <row r="675">
-      <c r="F675" s="12"/>
+      <c r="I675" s="14"/>
     </row>
     <row r="676">
-      <c r="F676" s="12"/>
+      <c r="I676" s="14"/>
     </row>
     <row r="677">
-      <c r="F677" s="12"/>
+      <c r="I677" s="14"/>
     </row>
     <row r="678">
-      <c r="F678" s="12"/>
+      <c r="I678" s="14"/>
     </row>
     <row r="679">
-      <c r="F679" s="12"/>
+      <c r="I679" s="14"/>
     </row>
     <row r="680">
-      <c r="F680" s="12"/>
+      <c r="I680" s="14"/>
     </row>
     <row r="681">
-      <c r="F681" s="12"/>
+      <c r="I681" s="14"/>
     </row>
     <row r="682">
-      <c r="F682" s="12"/>
+      <c r="I682" s="14"/>
     </row>
     <row r="683">
-      <c r="F683" s="12"/>
+      <c r="I683" s="14"/>
     </row>
     <row r="684">
-      <c r="F684" s="12"/>
+      <c r="I684" s="14"/>
     </row>
     <row r="685">
-      <c r="F685" s="12"/>
+      <c r="I685" s="14"/>
     </row>
     <row r="686">
-      <c r="F686" s="12"/>
+      <c r="I686" s="14"/>
     </row>
     <row r="687">
-      <c r="F687" s="12"/>
+      <c r="I687" s="14"/>
     </row>
     <row r="688">
-      <c r="F688" s="12"/>
+      <c r="I688" s="14"/>
     </row>
     <row r="689">
-      <c r="F689" s="12"/>
+      <c r="I689" s="14"/>
     </row>
     <row r="690">
-      <c r="F690" s="12"/>
+      <c r="I690" s="14"/>
     </row>
     <row r="691">
-      <c r="F691" s="12"/>
+      <c r="I691" s="14"/>
     </row>
     <row r="692">
-      <c r="F692" s="12"/>
+      <c r="I692" s="14"/>
     </row>
     <row r="693">
-      <c r="F693" s="12"/>
+      <c r="I693" s="14"/>
     </row>
     <row r="694">
-      <c r="F694" s="12"/>
+      <c r="I694" s="14"/>
     </row>
     <row r="695">
-      <c r="F695" s="12"/>
+      <c r="I695" s="14"/>
     </row>
     <row r="696">
-      <c r="F696" s="12"/>
+      <c r="I696" s="14"/>
     </row>
     <row r="697">
-      <c r="F697" s="12"/>
+      <c r="I697" s="14"/>
     </row>
     <row r="698">
-      <c r="F698" s="12"/>
+      <c r="I698" s="14"/>
     </row>
     <row r="699">
-      <c r="F699" s="12"/>
+      <c r="I699" s="14"/>
     </row>
     <row r="700">
-      <c r="F700" s="12"/>
+      <c r="I700" s="14"/>
     </row>
     <row r="701">
-      <c r="F701" s="12"/>
+      <c r="I701" s="14"/>
     </row>
     <row r="702">
-      <c r="F702" s="12"/>
+      <c r="I702" s="14"/>
     </row>
     <row r="703">
-      <c r="F703" s="12"/>
+      <c r="I703" s="14"/>
     </row>
     <row r="704">
-      <c r="F704" s="12"/>
+      <c r="I704" s="14"/>
     </row>
     <row r="705">
-      <c r="F705" s="12"/>
+      <c r="I705" s="14"/>
     </row>
     <row r="706">
-      <c r="F706" s="12"/>
+      <c r="I706" s="14"/>
     </row>
     <row r="707">
-      <c r="F707" s="12"/>
+      <c r="I707" s="14"/>
     </row>
     <row r="708">
-      <c r="F708" s="12"/>
+      <c r="I708" s="14"/>
     </row>
     <row r="709">
-      <c r="F709" s="12"/>
+      <c r="I709" s="14"/>
     </row>
     <row r="710">
-      <c r="F710" s="12"/>
+      <c r="I710" s="14"/>
     </row>
     <row r="711">
-      <c r="F711" s="12"/>
+      <c r="I711" s="14"/>
     </row>
     <row r="712">
-      <c r="F712" s="12"/>
+      <c r="I712" s="14"/>
     </row>
     <row r="713">
-      <c r="F713" s="12"/>
+      <c r="I713" s="14"/>
     </row>
     <row r="714">
-      <c r="F714" s="12"/>
+      <c r="I714" s="14"/>
     </row>
     <row r="715">
-      <c r="F715" s="12"/>
+      <c r="I715" s="14"/>
     </row>
     <row r="716">
-      <c r="F716" s="12"/>
+      <c r="I716" s="14"/>
     </row>
     <row r="717">
-      <c r="F717" s="12"/>
+      <c r="I717" s="14"/>
     </row>
     <row r="718">
-      <c r="F718" s="12"/>
+      <c r="I718" s="14"/>
     </row>
     <row r="719">
-      <c r="F719" s="12"/>
+      <c r="I719" s="14"/>
     </row>
     <row r="720">
-      <c r="F720" s="12"/>
+      <c r="I720" s="14"/>
     </row>
     <row r="721">
-      <c r="F721" s="12"/>
+      <c r="I721" s="14"/>
     </row>
     <row r="722">
-      <c r="F722" s="12"/>
+      <c r="I722" s="14"/>
     </row>
     <row r="723">
-      <c r="F723" s="12"/>
+      <c r="I723" s="14"/>
     </row>
     <row r="724">
-      <c r="F724" s="12"/>
+      <c r="I724" s="14"/>
     </row>
     <row r="725">
-      <c r="F725" s="12"/>
+      <c r="I725" s="14"/>
     </row>
     <row r="726">
-      <c r="F726" s="12"/>
+      <c r="I726" s="14"/>
     </row>
     <row r="727">
-      <c r="F727" s="12"/>
+      <c r="I727" s="14"/>
     </row>
     <row r="728">
-      <c r="F728" s="12"/>
+      <c r="I728" s="14"/>
     </row>
     <row r="729">
-      <c r="F729" s="12"/>
+      <c r="I729" s="14"/>
     </row>
     <row r="730">
-      <c r="F730" s="12"/>
+      <c r="I730" s="14"/>
     </row>
     <row r="731">
-      <c r="F731" s="12"/>
+      <c r="I731" s="14"/>
     </row>
     <row r="732">
-      <c r="F732" s="12"/>
+      <c r="I732" s="14"/>
     </row>
     <row r="733">
-      <c r="F733" s="12"/>
+      <c r="I733" s="14"/>
     </row>
     <row r="734">
-      <c r="F734" s="12"/>
+      <c r="I734" s="14"/>
     </row>
     <row r="735">
-      <c r="F735" s="12"/>
+      <c r="I735" s="14"/>
     </row>
     <row r="736">
-      <c r="F736" s="12"/>
+      <c r="I736" s="14"/>
     </row>
     <row r="737">
-      <c r="F737" s="12"/>
+      <c r="I737" s="14"/>
     </row>
     <row r="738">
-      <c r="F738" s="12"/>
+      <c r="I738" s="14"/>
     </row>
     <row r="739">
-      <c r="F739" s="12"/>
+      <c r="I739" s="14"/>
     </row>
     <row r="740">
-      <c r="F740" s="12"/>
+      <c r="I740" s="14"/>
     </row>
     <row r="741">
-      <c r="F741" s="12"/>
+      <c r="I741" s="14"/>
     </row>
     <row r="742">
-      <c r="F742" s="12"/>
+      <c r="I742" s="14"/>
     </row>
     <row r="743">
-      <c r="F743" s="12"/>
+      <c r="I743" s="14"/>
     </row>
     <row r="744">
-      <c r="F744" s="12"/>
+      <c r="I744" s="14"/>
     </row>
     <row r="745">
-      <c r="F745" s="12"/>
+      <c r="I745" s="14"/>
     </row>
     <row r="746">
-      <c r="F746" s="12"/>
+      <c r="I746" s="14"/>
     </row>
     <row r="747">
-      <c r="F747" s="12"/>
+      <c r="I747" s="14"/>
     </row>
     <row r="748">
-      <c r="F748" s="12"/>
+      <c r="I748" s="14"/>
     </row>
     <row r="749">
-      <c r="F749" s="12"/>
+      <c r="I749" s="14"/>
     </row>
     <row r="750">
-      <c r="F750" s="12"/>
+      <c r="I750" s="14"/>
     </row>
     <row r="751">
-      <c r="F751" s="12"/>
+      <c r="I751" s="14"/>
     </row>
     <row r="752">
-      <c r="F752" s="12"/>
+      <c r="I752" s="14"/>
     </row>
     <row r="753">
-      <c r="F753" s="12"/>
+      <c r="I753" s="14"/>
     </row>
     <row r="754">
-      <c r="F754" s="12"/>
+      <c r="I754" s="14"/>
     </row>
     <row r="755">
-      <c r="F755" s="12"/>
+      <c r="I755" s="14"/>
     </row>
     <row r="756">
-      <c r="F756" s="12"/>
+      <c r="I756" s="14"/>
     </row>
     <row r="757">
-      <c r="F757" s="12"/>
+      <c r="I757" s="14"/>
     </row>
     <row r="758">
-      <c r="F758" s="12"/>
+      <c r="I758" s="14"/>
     </row>
     <row r="759">
-      <c r="F759" s="12"/>
+      <c r="I759" s="14"/>
     </row>
     <row r="760">
-      <c r="F760" s="12"/>
+      <c r="I760" s="14"/>
     </row>
     <row r="761">
-      <c r="F761" s="12"/>
+      <c r="I761" s="14"/>
     </row>
     <row r="762">
-      <c r="F762" s="12"/>
+      <c r="I762" s="14"/>
     </row>
     <row r="763">
-      <c r="F763" s="12"/>
+      <c r="I763" s="14"/>
     </row>
     <row r="764">
-      <c r="F764" s="12"/>
+      <c r="I764" s="14"/>
     </row>
     <row r="765">
-      <c r="F765" s="12"/>
+      <c r="I765" s="14"/>
     </row>
     <row r="766">
-      <c r="F766" s="12"/>
+      <c r="I766" s="14"/>
     </row>
     <row r="767">
-      <c r="F767" s="12"/>
+      <c r="I767" s="14"/>
     </row>
     <row r="768">
-      <c r="F768" s="12"/>
+      <c r="I768" s="14"/>
     </row>
     <row r="769">
-      <c r="F769" s="12"/>
+      <c r="I769" s="14"/>
     </row>
     <row r="770">
-      <c r="F770" s="12"/>
+      <c r="I770" s="14"/>
     </row>
     <row r="771">
-      <c r="F771" s="12"/>
+      <c r="I771" s="14"/>
     </row>
     <row r="772">
-      <c r="F772" s="12"/>
+      <c r="I772" s="14"/>
     </row>
     <row r="773">
-      <c r="F773" s="12"/>
+      <c r="I773" s="14"/>
     </row>
     <row r="774">
-      <c r="F774" s="12"/>
+      <c r="I774" s="14"/>
     </row>
     <row r="775">
-      <c r="F775" s="12"/>
+      <c r="I775" s="14"/>
     </row>
     <row r="776">
-      <c r="F776" s="12"/>
+      <c r="I776" s="14"/>
     </row>
     <row r="777">
-      <c r="F777" s="12"/>
+      <c r="I777" s="14"/>
     </row>
     <row r="778">
-      <c r="F778" s="12"/>
+      <c r="I778" s="14"/>
     </row>
     <row r="779">
-      <c r="F779" s="12"/>
+      <c r="I779" s="14"/>
     </row>
     <row r="780">
-      <c r="F780" s="12"/>
+      <c r="I780" s="14"/>
     </row>
     <row r="781">
-      <c r="F781" s="12"/>
+      <c r="I781" s="14"/>
     </row>
     <row r="782">
-      <c r="F782" s="12"/>
+      <c r="I782" s="14"/>
     </row>
     <row r="783">
-      <c r="F783" s="12"/>
+      <c r="I783" s="14"/>
     </row>
     <row r="784">
-      <c r="F784" s="12"/>
+      <c r="I784" s="14"/>
     </row>
     <row r="785">
-      <c r="F785" s="12"/>
+      <c r="I785" s="14"/>
     </row>
     <row r="786">
-      <c r="F786" s="12"/>
+      <c r="I786" s="14"/>
     </row>
     <row r="787">
-      <c r="F787" s="12"/>
+      <c r="I787" s="14"/>
     </row>
     <row r="788">
-      <c r="F788" s="12"/>
+      <c r="I788" s="14"/>
     </row>
     <row r="789">
-      <c r="F789" s="12"/>
+      <c r="I789" s="14"/>
     </row>
     <row r="790">
-      <c r="F790" s="12"/>
+      <c r="I790" s="14"/>
     </row>
     <row r="791">
-      <c r="F791" s="12"/>
+      <c r="I791" s="14"/>
     </row>
     <row r="792">
-      <c r="F792" s="12"/>
+      <c r="I792" s="14"/>
     </row>
     <row r="793">
-      <c r="F793" s="12"/>
+      <c r="I793" s="14"/>
     </row>
     <row r="794">
-      <c r="F794" s="12"/>
+      <c r="I794" s="14"/>
     </row>
     <row r="795">
-      <c r="F795" s="12"/>
+      <c r="I795" s="14"/>
     </row>
     <row r="796">
-      <c r="F796" s="12"/>
+      <c r="I796" s="14"/>
     </row>
     <row r="797">
-      <c r="F797" s="12"/>
+      <c r="I797" s="14"/>
     </row>
     <row r="798">
-      <c r="F798" s="12"/>
+      <c r="I798" s="14"/>
     </row>
     <row r="799">
-      <c r="F799" s="12"/>
+      <c r="I799" s="14"/>
     </row>
     <row r="800">
-      <c r="F800" s="12"/>
+      <c r="I800" s="14"/>
     </row>
     <row r="801">
-      <c r="F801" s="12"/>
+      <c r="I801" s="14"/>
     </row>
     <row r="802">
-      <c r="F802" s="12"/>
+      <c r="I802" s="14"/>
     </row>
     <row r="803">
-      <c r="F803" s="12"/>
+      <c r="I803" s="14"/>
     </row>
     <row r="804">
-      <c r="F804" s="12"/>
+      <c r="I804" s="14"/>
     </row>
     <row r="805">
-      <c r="F805" s="12"/>
+      <c r="I805" s="14"/>
     </row>
     <row r="806">
-      <c r="F806" s="12"/>
+      <c r="I806" s="14"/>
     </row>
     <row r="807">
-      <c r="F807" s="12"/>
+      <c r="I807" s="14"/>
     </row>
     <row r="808">
-      <c r="F808" s="12"/>
+      <c r="I808" s="14"/>
     </row>
     <row r="809">
-      <c r="F809" s="12"/>
+      <c r="I809" s="14"/>
     </row>
     <row r="810">
-      <c r="F810" s="12"/>
+      <c r="I810" s="14"/>
     </row>
     <row r="811">
-      <c r="F811" s="12"/>
+      <c r="I811" s="14"/>
     </row>
     <row r="812">
-      <c r="F812" s="12"/>
+      <c r="I812" s="14"/>
     </row>
     <row r="813">
-      <c r="F813" s="12"/>
+      <c r="I813" s="14"/>
     </row>
     <row r="814">
-      <c r="F814" s="12"/>
+      <c r="I814" s="14"/>
     </row>
     <row r="815">
-      <c r="F815" s="12"/>
+      <c r="I815" s="14"/>
     </row>
     <row r="816">
-      <c r="F816" s="12"/>
+      <c r="I816" s="14"/>
     </row>
     <row r="817">
-      <c r="F817" s="12"/>
+      <c r="I817" s="14"/>
     </row>
     <row r="818">
-      <c r="F818" s="12"/>
+      <c r="I818" s="14"/>
     </row>
     <row r="819">
-      <c r="F819" s="12"/>
+      <c r="I819" s="14"/>
     </row>
     <row r="820">
-      <c r="F820" s="12"/>
+      <c r="I820" s="14"/>
     </row>
     <row r="821">
-      <c r="F821" s="12"/>
+      <c r="I821" s="14"/>
     </row>
     <row r="822">
-      <c r="F822" s="12"/>
+      <c r="I822" s="14"/>
     </row>
     <row r="823">
-      <c r="F823" s="12"/>
+      <c r="I823" s="14"/>
     </row>
     <row r="824">
-      <c r="F824" s="12"/>
+      <c r="I824" s="14"/>
     </row>
     <row r="825">
-      <c r="F825" s="12"/>
+      <c r="I825" s="14"/>
     </row>
     <row r="826">
-      <c r="F826" s="12"/>
+      <c r="I826" s="14"/>
     </row>
     <row r="827">
-      <c r="F827" s="12"/>
+      <c r="I827" s="14"/>
     </row>
     <row r="828">
-      <c r="F828" s="12"/>
+      <c r="I828" s="14"/>
     </row>
     <row r="829">
-      <c r="F829" s="12"/>
+      <c r="I829" s="14"/>
     </row>
     <row r="830">
-      <c r="F830" s="12"/>
+      <c r="I830" s="14"/>
     </row>
     <row r="831">
-      <c r="F831" s="12"/>
+      <c r="I831" s="14"/>
     </row>
     <row r="832">
-      <c r="F832" s="12"/>
+      <c r="I832" s="14"/>
     </row>
     <row r="833">
-      <c r="F833" s="12"/>
+      <c r="I833" s="14"/>
     </row>
     <row r="834">
-      <c r="F834" s="12"/>
+      <c r="I834" s="14"/>
     </row>
     <row r="835">
-      <c r="F835" s="12"/>
+      <c r="I835" s="14"/>
     </row>
     <row r="836">
-      <c r="F836" s="12"/>
+      <c r="I836" s="14"/>
     </row>
     <row r="837">
-      <c r="F837" s="12"/>
+      <c r="I837" s="14"/>
     </row>
     <row r="838">
-      <c r="F838" s="12"/>
+      <c r="I838" s="14"/>
     </row>
     <row r="839">
-      <c r="F839" s="12"/>
+      <c r="I839" s="14"/>
     </row>
     <row r="840">
-      <c r="F840" s="12"/>
+      <c r="I840" s="14"/>
     </row>
     <row r="841">
-      <c r="F841" s="12"/>
+      <c r="I841" s="14"/>
     </row>
     <row r="842">
-      <c r="F842" s="12"/>
+      <c r="I842" s="14"/>
     </row>
     <row r="843">
-      <c r="F843" s="12"/>
+      <c r="I843" s="14"/>
     </row>
     <row r="844">
-      <c r="F844" s="12"/>
+      <c r="I844" s="14"/>
     </row>
     <row r="845">
-      <c r="F845" s="12"/>
+      <c r="I845" s="14"/>
     </row>
     <row r="846">
-      <c r="F846" s="12"/>
+      <c r="I846" s="14"/>
     </row>
     <row r="847">
-      <c r="F847" s="12"/>
+      <c r="I847" s="14"/>
     </row>
     <row r="848">
-      <c r="F848" s="12"/>
+      <c r="I848" s="14"/>
     </row>
     <row r="849">
-      <c r="F849" s="12"/>
+      <c r="I849" s="14"/>
     </row>
     <row r="850">
-      <c r="F850" s="12"/>
+      <c r="I850" s="14"/>
     </row>
     <row r="851">
-      <c r="F851" s="12"/>
+      <c r="I851" s="14"/>
     </row>
     <row r="852">
-      <c r="F852" s="12"/>
+      <c r="I852" s="14"/>
     </row>
     <row r="853">
-      <c r="F853" s="12"/>
+      <c r="I853" s="14"/>
     </row>
     <row r="854">
-      <c r="F854" s="12"/>
+      <c r="I854" s="14"/>
     </row>
     <row r="855">
-      <c r="F855" s="12"/>
+      <c r="I855" s="14"/>
     </row>
     <row r="856">
-      <c r="F856" s="12"/>
+      <c r="I856" s="14"/>
     </row>
     <row r="857">
-      <c r="F857" s="12"/>
+      <c r="I857" s="14"/>
     </row>
     <row r="858">
-      <c r="F858" s="12"/>
+      <c r="I858" s="14"/>
     </row>
     <row r="859">
-      <c r="F859" s="12"/>
+      <c r="I859" s="14"/>
     </row>
     <row r="860">
-      <c r="F860" s="12"/>
+      <c r="I860" s="14"/>
     </row>
     <row r="861">
-      <c r="F861" s="12"/>
+      <c r="I861" s="14"/>
     </row>
     <row r="862">
-      <c r="F862" s="12"/>
+      <c r="I862" s="14"/>
     </row>
     <row r="863">
-      <c r="F863" s="12"/>
+      <c r="I863" s="14"/>
     </row>
     <row r="864">
-      <c r="F864" s="12"/>
+      <c r="I864" s="14"/>
     </row>
     <row r="865">
-      <c r="F865" s="12"/>
+      <c r="I865" s="14"/>
     </row>
     <row r="866">
-      <c r="F866" s="12"/>
+      <c r="I866" s="14"/>
     </row>
     <row r="867">
-      <c r="F867" s="12"/>
+      <c r="I867" s="14"/>
     </row>
     <row r="868">
-      <c r="F868" s="12"/>
+      <c r="I868" s="14"/>
     </row>
     <row r="869">
-      <c r="F869" s="12"/>
+      <c r="I869" s="14"/>
     </row>
     <row r="870">
-      <c r="F870" s="12"/>
+      <c r="I870" s="14"/>
     </row>
     <row r="871">
-      <c r="F871" s="12"/>
+      <c r="I871" s="14"/>
     </row>
     <row r="872">
-      <c r="F872" s="12"/>
+      <c r="I872" s="14"/>
     </row>
     <row r="873">
-      <c r="F873" s="12"/>
+      <c r="I873" s="14"/>
     </row>
     <row r="874">
-      <c r="F874" s="12"/>
+      <c r="I874" s="14"/>
     </row>
     <row r="875">
-      <c r="F875" s="12"/>
+      <c r="I875" s="14"/>
     </row>
     <row r="876">
-      <c r="F876" s="12"/>
+      <c r="I876" s="14"/>
     </row>
     <row r="877">
-      <c r="F877" s="12"/>
+      <c r="I877" s="14"/>
     </row>
     <row r="878">
-      <c r="F878" s="12"/>
+      <c r="I878" s="14"/>
     </row>
     <row r="879">
-      <c r="F879" s="12"/>
+      <c r="I879" s="14"/>
     </row>
     <row r="880">
-      <c r="F880" s="12"/>
+      <c r="I880" s="14"/>
     </row>
     <row r="881">
-      <c r="F881" s="12"/>
+      <c r="I881" s="14"/>
     </row>
     <row r="882">
-      <c r="F882" s="12"/>
+      <c r="I882" s="14"/>
     </row>
     <row r="883">
-      <c r="F883" s="12"/>
+      <c r="I883" s="14"/>
     </row>
     <row r="884">
-      <c r="F884" s="12"/>
+      <c r="I884" s="14"/>
     </row>
     <row r="885">
-      <c r="F885" s="12"/>
+      <c r="I885" s="14"/>
     </row>
     <row r="886">
-      <c r="F886" s="12"/>
+      <c r="I886" s="14"/>
     </row>
     <row r="887">
-      <c r="F887" s="12"/>
+      <c r="I887" s="14"/>
     </row>
     <row r="888">
-      <c r="F888" s="12"/>
+      <c r="I888" s="14"/>
     </row>
     <row r="889">
-      <c r="F889" s="12"/>
+      <c r="I889" s="14"/>
     </row>
     <row r="890">
-      <c r="F890" s="12"/>
+      <c r="I890" s="14"/>
     </row>
     <row r="891">
-      <c r="F891" s="12"/>
+      <c r="I891" s="14"/>
     </row>
     <row r="892">
-      <c r="F892" s="12"/>
+      <c r="I892" s="14"/>
     </row>
     <row r="893">
-      <c r="F893" s="12"/>
+      <c r="I893" s="14"/>
     </row>
     <row r="894">
-      <c r="F894" s="12"/>
+      <c r="I894" s="14"/>
     </row>
     <row r="895">
-      <c r="F895" s="12"/>
+      <c r="I895" s="14"/>
     </row>
     <row r="896">
-      <c r="F896" s="12"/>
+      <c r="I896" s="14"/>
     </row>
     <row r="897">
-      <c r="F897" s="12"/>
+      <c r="I897" s="14"/>
     </row>
     <row r="898">
-      <c r="F898" s="12"/>
+      <c r="I898" s="14"/>
     </row>
     <row r="899">
-      <c r="F899" s="12"/>
+      <c r="I899" s="14"/>
     </row>
     <row r="900">
-      <c r="F900" s="12"/>
+      <c r="I900" s="14"/>
     </row>
     <row r="901">
-      <c r="F901" s="12"/>
+      <c r="I901" s="14"/>
     </row>
     <row r="902">
-      <c r="F902" s="12"/>
+      <c r="I902" s="14"/>
     </row>
     <row r="903">
-      <c r="F903" s="12"/>
+      <c r="I903" s="14"/>
     </row>
     <row r="904">
-      <c r="F904" s="12"/>
+      <c r="I904" s="14"/>
     </row>
     <row r="905">
-      <c r="F905" s="12"/>
+      <c r="I905" s="14"/>
     </row>
     <row r="906">
-      <c r="F906" s="12"/>
+      <c r="I906" s="14"/>
     </row>
     <row r="907">
-      <c r="F907" s="12"/>
+      <c r="I907" s="14"/>
     </row>
     <row r="908">
-      <c r="F908" s="12"/>
+      <c r="I908" s="14"/>
     </row>
     <row r="909">
-      <c r="F909" s="12"/>
+      <c r="I909" s="14"/>
     </row>
     <row r="910">
-      <c r="F910" s="12"/>
+      <c r="I910" s="14"/>
     </row>
     <row r="911">
-      <c r="F911" s="12"/>
+      <c r="I911" s="14"/>
     </row>
     <row r="912">
-      <c r="F912" s="12"/>
+      <c r="I912" s="14"/>
     </row>
     <row r="913">
-      <c r="F913" s="12"/>
+      <c r="I913" s="14"/>
     </row>
     <row r="914">
-      <c r="F914" s="12"/>
+      <c r="I914" s="14"/>
     </row>
     <row r="915">
-      <c r="F915" s="12"/>
+      <c r="I915" s="14"/>
     </row>
     <row r="916">
-      <c r="F916" s="12"/>
+      <c r="I916" s="14"/>
     </row>
     <row r="917">
-      <c r="F917" s="12"/>
+      <c r="I917" s="14"/>
     </row>
     <row r="918">
-      <c r="F918" s="12"/>
+      <c r="I918" s="14"/>
     </row>
     <row r="919">
-      <c r="F919" s="12"/>
+      <c r="I919" s="14"/>
     </row>
     <row r="920">
-      <c r="F920" s="12"/>
+      <c r="I920" s="14"/>
     </row>
     <row r="921">
-      <c r="F921" s="12"/>
+      <c r="I921" s="14"/>
     </row>
     <row r="922">
-      <c r="F922" s="12"/>
+      <c r="I922" s="14"/>
     </row>
     <row r="923">
-      <c r="F923" s="12"/>
+      <c r="I923" s="14"/>
     </row>
     <row r="924">
-      <c r="F924" s="12"/>
+      <c r="I924" s="14"/>
     </row>
     <row r="925">
-      <c r="F925" s="12"/>
+      <c r="I925" s="14"/>
     </row>
     <row r="926">
-      <c r="F926" s="12"/>
+      <c r="I926" s="14"/>
     </row>
     <row r="927">
-      <c r="F927" s="12"/>
+      <c r="I927" s="14"/>
     </row>
     <row r="928">
-      <c r="F928" s="12"/>
+      <c r="I928" s="14"/>
     </row>
     <row r="929">
-      <c r="F929" s="12"/>
+      <c r="I929" s="14"/>
     </row>
     <row r="930">
-      <c r="F930" s="12"/>
+      <c r="I930" s="14"/>
     </row>
     <row r="931">
-      <c r="F931" s="12"/>
+      <c r="I931" s="14"/>
     </row>
     <row r="932">
-      <c r="F932" s="12"/>
+      <c r="I932" s="14"/>
     </row>
     <row r="933">
-      <c r="F933" s="12"/>
+      <c r="I933" s="14"/>
     </row>
     <row r="934">
-      <c r="F934" s="12"/>
+      <c r="I934" s="14"/>
     </row>
     <row r="935">
-      <c r="F935" s="12"/>
+      <c r="I935" s="14"/>
     </row>
     <row r="936">
-      <c r="F936" s="12"/>
+      <c r="I936" s="14"/>
     </row>
     <row r="937">
-      <c r="F937" s="12"/>
+      <c r="I937" s="14"/>
     </row>
     <row r="938">
-      <c r="F938" s="12"/>
+      <c r="I938" s="14"/>
     </row>
     <row r="939">
-      <c r="F939" s="12"/>
+      <c r="I939" s="14"/>
     </row>
     <row r="940">
-      <c r="F940" s="12"/>
+      <c r="I940" s="14"/>
     </row>
     <row r="941">
-      <c r="F941" s="12"/>
+      <c r="I941" s="14"/>
     </row>
     <row r="942">
-      <c r="F942" s="12"/>
+      <c r="I942" s="14"/>
     </row>
     <row r="943">
-      <c r="F943" s="12"/>
+      <c r="I943" s="14"/>
     </row>
     <row r="944">
-      <c r="F944" s="12"/>
+      <c r="I944" s="14"/>
     </row>
     <row r="945">
-      <c r="F945" s="12"/>
+      <c r="I945" s="14"/>
     </row>
     <row r="946">
-      <c r="F946" s="12"/>
+      <c r="I946" s="14"/>
     </row>
     <row r="947">
-      <c r="F947" s="12"/>
+      <c r="I947" s="14"/>
     </row>
     <row r="948">
-      <c r="F948" s="12"/>
+      <c r="I948" s="14"/>
     </row>
     <row r="949">
-      <c r="F949" s="12"/>
+      <c r="I949" s="14"/>
     </row>
     <row r="950">
-      <c r="F950" s="12"/>
+      <c r="I950" s="14"/>
     </row>
     <row r="951">
-      <c r="F951" s="12"/>
+      <c r="I951" s="14"/>
     </row>
     <row r="952">
-      <c r="F952" s="12"/>
+      <c r="I952" s="14"/>
     </row>
     <row r="953">
-      <c r="F953" s="12"/>
+      <c r="I953" s="14"/>
     </row>
     <row r="954">
-      <c r="F954" s="12"/>
+      <c r="I954" s="14"/>
     </row>
     <row r="955">
-      <c r="F955" s="12"/>
+      <c r="I955" s="14"/>
     </row>
     <row r="956">
-      <c r="F956" s="12"/>
+      <c r="I956" s="14"/>
     </row>
     <row r="957">
-      <c r="F957" s="12"/>
+      <c r="I957" s="14"/>
     </row>
     <row r="958">
-      <c r="F958" s="12"/>
+      <c r="I958" s="14"/>
     </row>
     <row r="959">
-      <c r="F959" s="12"/>
+      <c r="I959" s="14"/>
     </row>
     <row r="960">
-      <c r="F960" s="12"/>
+      <c r="I960" s="14"/>
     </row>
     <row r="961">
-      <c r="F961" s="12"/>
+      <c r="I961" s="14"/>
     </row>
     <row r="962">
-      <c r="F962" s="12"/>
+      <c r="I962" s="14"/>
     </row>
     <row r="963">
-      <c r="F963" s="12"/>
+      <c r="I963" s="14"/>
     </row>
     <row r="964">
-      <c r="F964" s="12"/>
+      <c r="I964" s="14"/>
     </row>
     <row r="965">
-      <c r="F965" s="12"/>
+      <c r="I965" s="14"/>
     </row>
     <row r="966">
-      <c r="F966" s="12"/>
+      <c r="I966" s="14"/>
     </row>
     <row r="967">
-      <c r="F967" s="12"/>
+      <c r="I967" s="14"/>
     </row>
     <row r="968">
-      <c r="F968" s="12"/>
+      <c r="I968" s="14"/>
     </row>
     <row r="969">
-      <c r="F969" s="12"/>
+      <c r="I969" s="14"/>
     </row>
     <row r="970">
-      <c r="F970" s="12"/>
+      <c r="I970" s="14"/>
     </row>
     <row r="971">
-      <c r="F971" s="12"/>
+      <c r="I971" s="14"/>
     </row>
     <row r="972">
-      <c r="F972" s="12"/>
+      <c r="I972" s="14"/>
     </row>
     <row r="973">
-      <c r="F973" s="12"/>
+      <c r="I973" s="14"/>
     </row>
     <row r="974">
-      <c r="F974" s="12"/>
+      <c r="I974" s="14"/>
     </row>
     <row r="975">
-      <c r="F975" s="12"/>
+      <c r="I975" s="14"/>
     </row>
     <row r="976">
-      <c r="F976" s="12"/>
+      <c r="I976" s="14"/>
     </row>
     <row r="977">
-      <c r="F977" s="12"/>
+      <c r="I977" s="14"/>
     </row>
     <row r="978">
-      <c r="F978" s="12"/>
+      <c r="I978" s="14"/>
     </row>
     <row r="979">
-      <c r="F979" s="12"/>
+      <c r="I979" s="14"/>
     </row>
     <row r="980">
-      <c r="F980" s="12"/>
+      <c r="I980" s="14"/>
     </row>
     <row r="981">
-      <c r="F981" s="12"/>
+      <c r="I981" s="14"/>
     </row>
     <row r="982">
-      <c r="F982" s="12"/>
+      <c r="I982" s="14"/>
     </row>
     <row r="983">
-      <c r="F983" s="12"/>
+      <c r="I983" s="14"/>
     </row>
     <row r="984">
-      <c r="F984" s="12"/>
+      <c r="I984" s="14"/>
     </row>
     <row r="985">
-      <c r="F985" s="12"/>
+      <c r="I985" s="14"/>
     </row>
     <row r="986">
-      <c r="F986" s="12"/>
+      <c r="I986" s="14"/>
     </row>
     <row r="987">
-      <c r="F987" s="12"/>
+      <c r="I987" s="14"/>
     </row>
     <row r="988">
-      <c r="F988" s="12"/>
+      <c r="I988" s="14"/>
     </row>
     <row r="989">
-      <c r="F989" s="12"/>
+      <c r="I989" s="14"/>
     </row>
     <row r="990">
-      <c r="F990" s="12"/>
+      <c r="I990" s="14"/>
     </row>
     <row r="991">
-      <c r="F991" s="12"/>
+      <c r="I991" s="14"/>
     </row>
     <row r="992">
-      <c r="F992" s="12"/>
+      <c r="I992" s="14"/>
     </row>
     <row r="993">
-      <c r="F993" s="12"/>
+      <c r="I993" s="14"/>
     </row>
     <row r="994">
-      <c r="F994" s="12"/>
+      <c r="I994" s="14"/>
     </row>
     <row r="995">
-      <c r="F995" s="12"/>
+      <c r="I995" s="14"/>
     </row>
     <row r="996">
-      <c r="F996" s="12"/>
+      <c r="I996" s="14"/>
     </row>
     <row r="997">
-      <c r="F997" s="12"/>
+      <c r="I997" s="14"/>
     </row>
     <row r="998">
-      <c r="F998" s="12"/>
+      <c r="I998" s="14"/>
     </row>
     <row r="999">
-      <c r="F999" s="12"/>
+      <c r="I999" s="14"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="12"/>
-      <c r="H1000" s="3"/>
+      <c r="I1000" s="14"/>
+      <c r="K1000" s="4"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{269770A5-9AA1-47FE-8112-84232B607CC1}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$I$35"/>
+    <customSheetView guid="{025F4379-86B0-4E05-87B7-8BDA575114C3}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$L$35"/>
     </customSheetView>
   </customSheetViews>
+  <conditionalFormatting sqref="B2:L35">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="+">
+      <formula>NOT(ISERROR(SEARCH(("+"),(B2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:L35">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="-">
+      <formula>NOT(ISERROR(SEARCH(("-"),(B2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="A3"/>
@@ -4553,200 +4885,202 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="48.75" customHeight="1">
+      <c r="A2" s="17">
+        <v>45001.0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="57.75" customHeight="1">
+      <c r="A3" s="17">
+        <v>45008.0</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="17">
+        <v>45015.0</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="17">
+        <v>45022.0</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="17">
+        <v>45029.0</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="17">
+        <v>45036.0</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="17">
+        <v>45043.0</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17">
+        <v>45050.0</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17">
+        <v>45057.0</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17">
+        <v>45064.0</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17">
+        <v>45071.0</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17">
+        <v>45078.0</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17">
+        <v>45085.0</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="17">
+        <v>45092.0</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D15" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="48.75" customHeight="1">
-      <c r="A2" s="15">
-        <v>45001.0</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="16">
+      <c r="A16" s="17">
+        <v>45099.0</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" ht="57.75" customHeight="1">
-      <c r="A3" s="15">
-        <v>45008.0</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="15">
-        <v>45015.0</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="15">
-        <v>45022.0</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="15">
-        <v>45029.0</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="15">
-        <v>45036.0</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="15">
-        <v>45043.0</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="15">
-        <v>45050.0</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15">
-        <v>45057.0</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15">
-        <v>45064.0</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="15">
-        <v>45071.0</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="15">
-        <v>45078.0</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="15">
-        <v>45085.0</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="15">
-        <v>45092.0</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="15">
-        <v>45099.0</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17">
-      <c r="A17" s="15">
+      <c r="A17" s="17">
         <v>45106.0</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
